--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if717710_iteso_mx/Documents/Finance/Concurso-Interuniversitario-BMV-Peeptrade/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1223" documentId="13_ncr:1_{2B0A74F4-E7AA-4905-A302-D51046D9232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED78D70-4345-4A51-859B-8698600D112A}"/>
+  <xr:revisionPtr revIDLastSave="2014" documentId="13_ncr:1_{2B0A74F4-E7AA-4905-A302-D51046D9232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E433DE-84D6-465A-B2C2-4FDFD2172C12}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{52F8559E-C375-4055-9335-04E177E3C725}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'1'!$C$10:$C$24</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'1'!$C$10:$C$26</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'2'!$C$10:$C$24</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'3'!$C$10:$C$24</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
@@ -39,13 +39,13 @@
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'1'!$C$10:$C$24</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'1'!$C$10:$C$26</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2'!$C$10:$C$24</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3'!$C$10:$C$24</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'1'!$C$10:$C$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'1'!$C$10:$C$26</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2'!$C$26</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3'!$C$10:$C$24</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'1'!$C$26</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'1'!$C$29</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'3'!$C$26</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
@@ -88,7 +88,7 @@
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.08</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">0.1</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
@@ -127,7 +127,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,66 +168,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="77">
   <si>
-    <t>VNQ</t>
+    <t>FSLR</t>
   </si>
   <si>
-    <t>VBK</t>
+    <t>KO</t>
   </si>
   <si>
-    <t>SPY</t>
+    <t>MRNA</t>
   </si>
   <si>
-    <t>VTI</t>
+    <t>MSFT</t>
   </si>
   <si>
-    <t>VGT</t>
+    <t>PFE</t>
   </si>
   <si>
-    <t>IBM</t>
+    <t>VOO</t>
   </si>
   <si>
-    <t>AAL</t>
+    <t>VTIP</t>
+  </si>
+  <si>
+    <t>WNS</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>NIO</t>
   </si>
   <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>PFE</t>
+    <t>DIS</t>
   </si>
   <si>
-    <t>MSFT</t>
+    <t>UTF</t>
   </si>
   <si>
-    <t>AAPL</t>
+    <t>CCL</t>
   </si>
   <si>
-    <t>VWAGY</t>
+    <t>AMD</t>
   </si>
   <si>
-    <t>NFLX</t>
+    <t>VUG</t>
   </si>
   <si>
-    <t>MA</t>
+    <t>FDX</t>
   </si>
   <si>
-    <t>KO</t>
+    <t>Column 1</t>
   </si>
   <si>
-    <t>Var_252</t>
+    <t>Column 2</t>
   </si>
   <si>
-    <t>Vol_252</t>
+    <t>Column 3</t>
   </si>
   <si>
-    <t>rf</t>
+    <t>Column 4</t>
   </si>
   <si>
-    <t>Var_P</t>
+    <t>Column 5</t>
   </si>
   <si>
-    <t>VarP_252</t>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>Column 8</t>
+  </si>
+  <si>
+    <t>Column 9</t>
+  </si>
+  <si>
+    <t>Column 10</t>
+  </si>
+  <si>
+    <t>Column 11</t>
+  </si>
+  <si>
+    <t>Column 12</t>
+  </si>
+  <si>
+    <t>Column 13</t>
+  </si>
+  <si>
+    <t>Column 14</t>
+  </si>
+  <si>
+    <t>Column 15</t>
+  </si>
+  <si>
+    <t>Column 16</t>
+  </si>
+  <si>
+    <t>Column 17</t>
   </si>
   <si>
     <t>R_D</t>
@@ -239,7 +281,28 @@
     <t>Var</t>
   </si>
   <si>
+    <t>Var_252</t>
+  </si>
+  <si>
     <t>Vol</t>
+  </si>
+  <si>
+    <t>Vol_252</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>R en Port</t>
+  </si>
+  <si>
+    <t>Var_D_P</t>
+  </si>
+  <si>
+    <t>Vol_D_P</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
   </si>
   <si>
     <t>w1</t>
@@ -287,79 +350,69 @@
     <t>w15</t>
   </si>
   <si>
-    <t>Peso</t>
+    <t>w16</t>
   </si>
   <si>
-    <t>R en Port</t>
+    <t>w17</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>VNQ</t>
+  </si>
+  <si>
+    <t>VBK</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>VWAGY</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Var_P</t>
+  </si>
+  <si>
+    <t>VarP_252</t>
   </si>
   <si>
     <t>Vol_P</t>
-  </si>
-  <si>
-    <t>Sharpe</t>
-  </si>
-  <si>
-    <t>Column 1</t>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
-  </si>
-  <si>
-    <t>Column 4</t>
-  </si>
-  <si>
-    <t>Column 5</t>
-  </si>
-  <si>
-    <t>Column 6</t>
-  </si>
-  <si>
-    <t>Column 7</t>
-  </si>
-  <si>
-    <t>Column 8</t>
-  </si>
-  <si>
-    <t>Column 9</t>
-  </si>
-  <si>
-    <t>Column 10</t>
-  </si>
-  <si>
-    <t>Column 11</t>
-  </si>
-  <si>
-    <t>Column 12</t>
-  </si>
-  <si>
-    <t>Column 13</t>
-  </si>
-  <si>
-    <t>Column 14</t>
-  </si>
-  <si>
-    <t>Column 15</t>
-  </si>
-  <si>
-    <t>Var_D_P</t>
-  </si>
-  <si>
-    <t>Vol_D_P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -442,31 +495,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,15 +840,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D92C11-4352-4364-ADEA-DDDB8FCB9739}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,287 +894,170 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>109.389999389648</v>
+        <v>121.139999389648</v>
       </c>
       <c r="B2">
-        <v>295.61999511718699</v>
+        <v>56.169998168945298</v>
       </c>
       <c r="C2">
-        <v>455.54998779296801</v>
+        <v>337.17001342773398</v>
       </c>
       <c r="D2">
-        <v>235.80000305175699</v>
+        <v>329.36999511718699</v>
       </c>
       <c r="E2">
-        <v>428.86999511718699</v>
+        <v>43.639999389648402</v>
       </c>
       <c r="F2">
-        <v>127.639999389648</v>
+        <v>423.04998779296801</v>
       </c>
       <c r="G2">
-        <v>19.2299995422363</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>231.66000366210901</v>
+        <v>89.709999084472599</v>
       </c>
       <c r="I2">
-        <v>43.150001525878899</v>
+        <v>278.94000244140602</v>
       </c>
       <c r="J2">
-        <v>308.13000488281199</v>
+        <v>40.840000152587798</v>
       </c>
       <c r="K2">
-        <v>148.63999938964801</v>
+        <v>258.26998901367102</v>
       </c>
       <c r="L2">
-        <v>33.069999694824197</v>
+        <v>170.19000244140599</v>
       </c>
       <c r="M2">
-        <v>671.65997314453102</v>
+        <v>28.520000457763601</v>
       </c>
       <c r="N2">
-        <v>360.85998535156199</v>
+        <v>23.069999694824201</v>
       </c>
       <c r="O2">
-        <v>54.2299995422363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>125.230003356933</v>
+      </c>
+      <c r="P2">
+        <v>314.29998779296801</v>
+      </c>
+      <c r="Q2">
+        <v>235.63999938964801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>109.69000244140599</v>
+        <v>118.650001525878</v>
       </c>
       <c r="B3">
-        <v>293.600006103515</v>
+        <v>56.099998474121001</v>
       </c>
       <c r="C3">
-        <v>455.95999145507801</v>
+        <v>348.64001464843699</v>
       </c>
       <c r="D3">
-        <v>235.71000671386699</v>
+        <v>333.13000488281199</v>
       </c>
       <c r="E3">
-        <v>429.44000244140602</v>
+        <v>45.450000762939403</v>
       </c>
       <c r="F3">
-        <v>127.129997253417</v>
+        <v>424.69000244140602</v>
       </c>
       <c r="G3">
-        <v>19.389999389648398</v>
+        <v>52.049999237060497</v>
       </c>
       <c r="H3">
-        <v>247.169998168945</v>
+        <v>90.239997863769503</v>
       </c>
       <c r="I3">
-        <v>43.560001373291001</v>
+        <v>280.29000854492102</v>
       </c>
       <c r="J3">
-        <v>310.10998535156199</v>
+        <v>41.299999237060497</v>
       </c>
       <c r="K3">
-        <v>149.32000732421801</v>
+        <v>264.010009765625</v>
       </c>
       <c r="L3">
-        <v>34.110000610351499</v>
+        <v>169.83000183105401</v>
       </c>
       <c r="M3">
-        <v>668.52001953125</v>
+        <v>28.389999389648398</v>
       </c>
       <c r="N3">
-        <v>357.32000732421801</v>
+        <v>22.909999847412099</v>
       </c>
       <c r="O3">
-        <v>54.470001220703097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>127.629997253417</v>
+      </c>
+      <c r="P3">
+        <v>315.23001098632801</v>
+      </c>
+      <c r="Q3">
+        <v>235.77000427246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>108.76000213623</v>
+        <v>116.83000183105401</v>
       </c>
       <c r="B4">
-        <v>289.13000488281199</v>
+        <v>56.290000915527301</v>
       </c>
       <c r="C4">
-        <v>453.94000244140602</v>
+        <v>345.92001342773398</v>
       </c>
       <c r="D4">
-        <v>234.100006103515</v>
+        <v>334</v>
       </c>
       <c r="E4">
-        <v>427.82000732421801</v>
+        <v>44.819999694824197</v>
       </c>
       <c r="F4">
-        <v>125.169998168945</v>
+        <v>427.25</v>
       </c>
       <c r="G4">
-        <v>19.030000686645501</v>
+        <v>52.060001373291001</v>
       </c>
       <c r="H4">
-        <v>244.509994506835</v>
+        <v>88.589996337890597</v>
       </c>
       <c r="I4">
-        <v>42.970001220703097</v>
+        <v>285.66000366210898</v>
       </c>
       <c r="J4">
-        <v>323.17001342773398</v>
+        <v>41.5</v>
       </c>
       <c r="K4">
-        <v>148.850006103515</v>
+        <v>265.98001098632801</v>
       </c>
       <c r="L4">
-        <v>33.349998474121001</v>
+        <v>170.08000183105401</v>
       </c>
       <c r="M4">
-        <v>662.91998291015602</v>
+        <v>28.4300003051757</v>
       </c>
       <c r="N4">
-        <v>335.72000122070301</v>
+        <v>23.170000076293899</v>
       </c>
       <c r="O4">
-        <v>55.520000457763601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>110.27999877929599</v>
-      </c>
-      <c r="B5">
-        <v>295.100006103515</v>
-      </c>
-      <c r="C5">
-        <v>458.32000732421801</v>
-      </c>
-      <c r="D5">
-        <v>236.600006103515</v>
-      </c>
-      <c r="E5">
-        <v>432.19000244140602</v>
-      </c>
-      <c r="F5">
-        <v>125.83999633789</v>
-      </c>
-      <c r="G5">
-        <v>19.190000534057599</v>
-      </c>
-      <c r="H5">
-        <v>249.41000366210901</v>
-      </c>
-      <c r="I5">
-        <v>43.180000305175703</v>
-      </c>
-      <c r="J5">
-        <v>324.350006103515</v>
-      </c>
-      <c r="K5">
-        <v>152.57000732421801</v>
-      </c>
-      <c r="L5">
-        <v>33.25</v>
-      </c>
-      <c r="M5">
-        <v>674.04998779296795</v>
-      </c>
-      <c r="N5">
-        <v>333.02999877929602</v>
-      </c>
-      <c r="O5">
-        <v>56.040000915527301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>109.040000915527</v>
-      </c>
-      <c r="B6">
-        <v>295.600006103515</v>
-      </c>
-      <c r="C6">
-        <v>459.25</v>
-      </c>
-      <c r="D6">
-        <v>236.91000366210901</v>
-      </c>
-      <c r="E6">
-        <v>434.16000366210898</v>
-      </c>
-      <c r="F6">
-        <v>125.09999847412099</v>
-      </c>
-      <c r="G6">
-        <v>19.2000007629394</v>
-      </c>
-      <c r="H6">
-        <v>255.669998168945</v>
-      </c>
-      <c r="I6">
-        <v>43.740001678466797</v>
-      </c>
-      <c r="J6">
-        <v>331.61999511718699</v>
-      </c>
-      <c r="K6">
-        <v>149.80000305175699</v>
-      </c>
-      <c r="L6">
-        <v>32.610000610351499</v>
-      </c>
-      <c r="M6">
-        <v>690.30999755859295</v>
-      </c>
-      <c r="N6">
-        <v>335.51998901367102</v>
-      </c>
-      <c r="O6">
-        <v>56.369998931884702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>109.58000183105401</v>
-      </c>
-      <c r="B7">
-        <v>301.66000366210898</v>
-      </c>
-      <c r="C7">
-        <v>460.04000854492102</v>
-      </c>
-      <c r="D7">
-        <v>238.08999633789</v>
-      </c>
-      <c r="E7">
-        <v>434.67999267578102</v>
-      </c>
-      <c r="F7">
-        <v>126.27999877929599</v>
-      </c>
-      <c r="G7">
-        <v>19.770000457763601</v>
-      </c>
-      <c r="H7">
-        <v>258.26998901367102</v>
-      </c>
-      <c r="I7">
-        <v>43.639999389648402</v>
-      </c>
-      <c r="J7">
-        <v>329.36999511718699</v>
-      </c>
-      <c r="K7">
-        <v>148.96000671386699</v>
-      </c>
-      <c r="L7">
-        <v>33.470001220703097</v>
-      </c>
-      <c r="M7">
-        <v>681.16998291015602</v>
-      </c>
-      <c r="N7">
-        <v>334.04998779296801</v>
-      </c>
-      <c r="O7">
-        <v>56.169998168945298</v>
+        <v>130.52999877929599</v>
+      </c>
+      <c r="P4">
+        <v>317.35998535156199</v>
+      </c>
+      <c r="Q4">
+        <v>240.02000427246</v>
       </c>
     </row>
   </sheetData>
@@ -1129,372 +1067,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52690BB-A3A3-429D-B1A9-CACA4A262D62}">
-  <dimension ref="A1:O252"/>
+  <dimension ref="A1:Q252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>Prices!A3/Prices!A2-1</f>
-        <v>2.7425089444363948E-3</v>
+        <v>-2.0554712533561226E-2</v>
       </c>
       <c r="B2" s="1">
         <f>Prices!B3/Prices!B2-1</f>
-        <v>-6.8330594920389398E-3</v>
+        <v>-1.2462114492821641E-3</v>
       </c>
       <c r="C2" s="1">
         <f>Prices!C3/Prices!C2-1</f>
-        <v>9.0001903873693223E-4</v>
+        <v>3.4018449933008066E-2</v>
       </c>
       <c r="D2" s="1">
         <f>Prices!D3/Prices!D2-1</f>
-        <v>-3.8166385379667656E-4</v>
+        <v>1.1415762884798397E-2</v>
       </c>
       <c r="E2" s="1">
         <f>Prices!E3/Prices!E2-1</f>
-        <v>1.329091171470953E-3</v>
+        <v>4.1475742406182015E-2</v>
       </c>
       <c r="F2" s="1">
         <f>Prices!F3/Prices!F2-1</f>
-        <v>-3.9956294160901074E-3</v>
+        <v>3.8766450673923813E-3</v>
       </c>
       <c r="G2" s="1">
         <f>Prices!G3/Prices!G2-1</f>
-        <v>8.3203250764867231E-3</v>
+        <v>9.6152378962499618E-4</v>
       </c>
       <c r="H2" s="1">
         <f>Prices!H3/Prices!H2-1</f>
-        <v>6.6951542181007184E-2</v>
+        <v>5.9079119909235533E-3</v>
       </c>
       <c r="I2" s="1">
         <f>Prices!I3/Prices!I2-1</f>
-        <v>9.5017342506049651E-3</v>
+        <v>4.8397723227187051E-3</v>
       </c>
       <c r="J2" s="1">
         <f>Prices!J3/Prices!J2-1</f>
-        <v>6.425795727043937E-3</v>
+        <v>1.126344472953078E-2</v>
       </c>
       <c r="K2" s="1">
         <f>Prices!K3/Prices!K2-1</f>
-        <v>4.5748650253112366E-3</v>
+        <v>2.2224884795461586E-2</v>
       </c>
       <c r="L2" s="1">
         <f>Prices!L3/Prices!L2-1</f>
-        <v>3.1448470672047479E-2</v>
+        <v>-2.1152864750438871E-3</v>
       </c>
       <c r="M2" s="1">
         <f>Prices!M3/Prices!M2-1</f>
-        <v>-4.6749154912129054E-3</v>
+        <v>-4.5582421468655099E-3</v>
       </c>
       <c r="N2" s="1">
         <f>Prices!N3/Prices!N2-1</f>
-        <v>-9.8098380841400434E-3</v>
+        <v>-6.9354074351374306E-3</v>
       </c>
       <c r="O2" s="1">
         <f>Prices!O3/Prices!O2-1</f>
-        <v>4.4256256775343505E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.916468763195267E-2</v>
+      </c>
+      <c r="P2" s="1">
+        <f>Prices!P3/Prices!P2-1</f>
+        <v>2.9590303196975754E-3</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>Prices!Q3/Prices!Q2-1</f>
+        <v>5.5170974006424345E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>Prices!A4/Prices!A3-1</f>
-        <v>-8.478441831312522E-3</v>
+        <v>-1.5339230269011406E-2</v>
       </c>
       <c r="B3" s="1">
         <f>Prices!B4/Prices!B3-1</f>
-        <v>-1.5224799481533435E-2</v>
+        <v>3.3868528801110909E-3</v>
       </c>
       <c r="C3" s="1">
         <f>Prices!C4/Prices!C3-1</f>
-        <v>-4.4301891646802982E-3</v>
+        <v>-7.8017470927592703E-3</v>
       </c>
       <c r="D3" s="1">
         <f>Prices!D4/Prices!D3-1</f>
-        <v>-6.8304296147528865E-3</v>
+        <v>2.6115783761180289E-3</v>
       </c>
       <c r="E3" s="1">
         <f>Prices!E4/Prices!E3-1</f>
-        <v>-3.7723433028553632E-3</v>
+        <v>-1.3861409406816128E-2</v>
       </c>
       <c r="F3" s="1">
         <f>Prices!F4/Prices!F3-1</f>
-        <v>-1.5417282520387432E-2</v>
+        <v>6.0279204687592181E-3</v>
       </c>
       <c r="G3" s="1">
         <f>Prices!G4/Prices!G3-1</f>
-        <v>-1.8566204968272881E-2</v>
+        <v>1.9216400340282824E-4</v>
       </c>
       <c r="H3" s="1">
         <f>Prices!H4/Prices!H3-1</f>
-        <v>-1.0761838741819463E-2</v>
+        <v>-1.8284591810051043E-2</v>
       </c>
       <c r="I3" s="1">
         <f>Prices!I4/Prices!I3-1</f>
-        <v>-1.3544539347734363E-2</v>
+        <v>1.9158710455165373E-2</v>
       </c>
       <c r="J3" s="1">
         <f>Prices!J4/Prices!J3-1</f>
-        <v>4.2114181074712098E-2</v>
+        <v>4.8426335746765137E-3</v>
       </c>
       <c r="K3" s="1">
         <f>Prices!K4/Prices!K3-1</f>
-        <v>-3.1476104851944076E-3</v>
+        <v>7.4618429144102105E-3</v>
       </c>
       <c r="L3" s="1">
         <f>Prices!L4/Prices!L3-1</f>
-        <v>-2.2280918282946538E-2</v>
+        <v>1.4720602797184679E-3</v>
       </c>
       <c r="M3" s="1">
         <f>Prices!M4/Prices!M3-1</f>
-        <v>-8.376767273208352E-3</v>
+        <v>1.4089790907809707E-3</v>
       </c>
       <c r="N3" s="1">
         <f>Prices!N4/Prices!N3-1</f>
-        <v>-6.0450032633957762E-2</v>
+        <v>1.1348766067808214E-2</v>
       </c>
       <c r="O3" s="1">
         <f>Prices!O4/Prices!O3-1</f>
-        <v>1.9276651616108698E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f>Prices!A5/Prices!A4-1</f>
-        <v>1.3975695229962337E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <f>Prices!B5/Prices!B4-1</f>
-        <v>2.0648155223885301E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Prices!C5/Prices!C4-1</f>
-        <v>9.6488629758453293E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <f>Prices!D5/Prices!D4-1</f>
-        <v>1.0679196645960509E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Prices!E5/Prices!E4-1</f>
-        <v>1.0214564635534273E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f>Prices!F5/Prices!F4-1</f>
-        <v>5.3527057501485675E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <f>Prices!G5/Prices!G4-1</f>
-        <v>8.4077688722512534E-3</v>
-      </c>
-      <c r="H4" s="1">
-        <f>Prices!H5/Prices!H4-1</f>
-        <v>2.0040118053894274E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f>Prices!I5/Prices!I4-1</f>
-        <v>4.8871091111681864E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <f>Prices!J5/Prices!J4-1</f>
-        <v>3.6513062064926771E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <f>Prices!K5/Prices!K4-1</f>
-        <v>2.4991609460304653E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f>Prices!L5/Prices!L4-1</f>
-        <v>-2.9984551333217535E-3</v>
-      </c>
-      <c r="M4" s="1">
-        <f>Prices!M5/Prices!M4-1</f>
-        <v>1.678936398017794E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f>Prices!N5/Prices!N4-1</f>
-        <v>-8.0126368152804162E-3</v>
-      </c>
-      <c r="O4" s="1">
-        <f>Prices!O5/Prices!O4-1</f>
-        <v>9.366002404111784E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f>Prices!A6/Prices!A5-1</f>
-        <v>-1.124408666571175E-2</v>
-      </c>
-      <c r="B5" s="1">
-        <f>Prices!B6/Prices!B5-1</f>
-        <v>1.6943408663454562E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Prices!C6/Prices!C5-1</f>
-        <v>2.0291339259037589E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <f>Prices!D6/Prices!D5-1</f>
-        <v>1.3102178807991027E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Prices!E6/Prices!E5-1</f>
-        <v>4.558183228613677E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <f>Prices!F6/Prices!F5-1</f>
-        <v>-5.8804663485689801E-3</v>
-      </c>
-      <c r="G5" s="1">
-        <f>Prices!G6/Prices!G5-1</f>
-        <v>5.2111665468967949E-4</v>
-      </c>
-      <c r="H5" s="1">
-        <f>Prices!H6/Prices!H5-1</f>
-        <v>2.5099211799526566E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f>Prices!I6/Prices!I5-1</f>
-        <v>1.296899882661573E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <f>Prices!J6/Prices!J5-1</f>
-        <v>2.2414024593395032E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f>Prices!K6/Prices!K5-1</f>
-        <v>-1.8155627839583466E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <f>Prices!L6/Prices!L5-1</f>
-        <v>-1.924810194431581E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>Prices!M6/Prices!M5-1</f>
-        <v>2.4122854476809508E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f>Prices!N6/Prices!N5-1</f>
-        <v>7.4767745953876474E-3</v>
-      </c>
-      <c r="O5" s="1">
-        <f>Prices!O6/Prices!O5-1</f>
-        <v>5.8886154704891336E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f>Prices!A7/Prices!A6-1</f>
-        <v>4.952319433171537E-3</v>
-      </c>
-      <c r="B6" s="1">
-        <f>Prices!B7/Prices!B6-1</f>
-        <v>2.0500667907536574E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Prices!C7/Prices!C6-1</f>
-        <v>1.7202145779444677E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <f>Prices!D7/Prices!D6-1</f>
-        <v>4.9807634018863567E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Prices!E7/Prices!E6-1</f>
-        <v>1.1976898131702551E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <f>Prices!F7/Prices!F6-1</f>
-        <v>9.4324565912693448E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Prices!G7/Prices!G6-1</f>
-        <v>2.968748292575274E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f>Prices!H7/Prices!H6-1</f>
-        <v>1.0169323203139236E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f>Prices!I7/Prices!I6-1</f>
-        <v>-2.2862890942143554E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <f>Prices!J7/Prices!J6-1</f>
-        <v>-6.7848743535651179E-3</v>
-      </c>
-      <c r="K6" s="1">
-        <f>Prices!K7/Prices!K6-1</f>
-        <v>-5.6074520746156598E-3</v>
-      </c>
-      <c r="L6" s="1">
-        <f>Prices!L7/Prices!L6-1</f>
-        <v>2.6372296665293726E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f>Prices!M7/Prices!M6-1</f>
-        <v>-1.3240449480323657E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f>Prices!N7/Prices!N6-1</f>
-        <v>-4.3812627230478407E-3</v>
-      </c>
-      <c r="O6" s="1">
-        <f>Prices!O7/Prices!O6-1</f>
-        <v>-3.5480001193733957E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.2721943025046487E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f>Prices!P4/Prices!P3-1</f>
+        <v>6.7568895441441068E-3</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>Prices!Q4/Prices!Q3-1</f>
+        <v>1.8026042002733389E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1511,7 +1336,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1528,7 +1353,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1545,7 +1370,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1562,7 +1387,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1579,7 +1404,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1596,7 +1421,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1613,7 +1438,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1630,7 +1455,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1647,7 +1472,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5683,825 +5508,1035 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F183712-E8E4-4A18-9C64-D52BF7A639CF}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7">
-        <f>VARP(Ret!$A$2:$A$6)</f>
-        <v>8.4984280816423729E-5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9.4658356102029497E-5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3.1347538953452224E-5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.2449253816947982E-5</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2.5558567391014511E-5</v>
-      </c>
-      <c r="G2" s="7">
-        <v>6.2298253969366092E-5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>8.5568954660789038E-5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5.592755657760953E-5</v>
-      </c>
-      <c r="J2" s="7">
-        <v>9.5116067372660716E-6</v>
-      </c>
-      <c r="K2" s="7">
-        <v>-1.2009183283326962E-4</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1.1276948518347595E-4</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1.150203993487178E-4</v>
-      </c>
-      <c r="N2" s="7">
-        <v>-9.9324804630590892E-6</v>
-      </c>
-      <c r="O2" s="7">
-        <v>5.943166330378605E-5</v>
-      </c>
-      <c r="P2" s="11">
-        <v>-2.3596091963526755E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7">
-        <v>9.4658356102029497E-5</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VARP(Ret!$B$2:$B$6)</f>
-        <v>2.0831478601220186E-4</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5.1642324188278528E-5</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.8173908564965693E-5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4.7061309830749065E-5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.1992846960803762E-4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.7819534286519519E-4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>-1.8469299484625981E-5</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3.3876343929874644E-5</v>
-      </c>
-      <c r="K3" s="7">
-        <v>-1.9854924116245574E-4</v>
-      </c>
-      <c r="L3" s="7">
-        <v>7.5186690714830581E-5</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.0303929990594699E-4</v>
-      </c>
-      <c r="N3" s="7">
-        <v>4.2961132282567696E-5</v>
-      </c>
-      <c r="O3" s="7">
-        <v>2.1145788275876563E-4</v>
-      </c>
-      <c r="P3" s="11">
-        <v>-6.8057806956952651E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3.1347538953452224E-5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5.1642324188278528E-5</v>
-      </c>
-      <c r="D4" s="7">
-        <f>VARP(Ret!$C$2:$C$6)</f>
-        <v>2.0227608336627991E-5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.4985329766380719E-5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.0215883748640429E-5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2.8277111444181178E-5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3.3399937272727926E-5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2.9933599757245755E-5</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2.3068955470990884E-5</v>
-      </c>
-      <c r="K4" s="7">
-        <v>-4.9120169390436442E-5</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4.14949784159477E-5</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1.5630900780364861E-5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3.8443837656990305E-5</v>
-      </c>
-      <c r="O4" s="7">
-        <v>6.75335618439266E-5</v>
-      </c>
-      <c r="P4" s="11">
-        <v>-1.1016522430175969E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4.2449253816947982E-5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>7.8173908564965693E-5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.4985329766380719E-5</v>
-      </c>
-      <c r="E5" s="7">
-        <f>VARP(Ret!$D$2:$D$6)</f>
-        <v>3.3665261903428731E-5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.3976108539089394E-5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4.4755680376854053E-5</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6.1321717231050408E-5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2.558034258140981E-5</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.4837477553110351E-5</v>
-      </c>
-      <c r="K5" s="7">
-        <v>-7.7580705559127059E-5</v>
-      </c>
-      <c r="L5" s="7">
-        <v>4.5948697959079578E-5</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3.7671191422220684E-5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3.5084785377402027E-5</v>
-      </c>
-      <c r="O5" s="7">
-        <v>9.3153218976990804E-5</v>
-      </c>
-      <c r="P5" s="11">
-        <v>-2.2479301906087128E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2.5558567391014511E-5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.7061309830749065E-5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.0215883748640429E-5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.3976108539089394E-5</v>
-      </c>
-      <c r="F6" s="7">
-        <f>VARP(Ret!$E$2:$E$6)</f>
-        <v>2.1189786701109984E-5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2.4089303398761314E-5</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2.5631087335326931E-5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3.1843568980964774E-5</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2.776684246786544E-5</v>
-      </c>
-      <c r="K6" s="7">
-        <v>-4.0495007618324846E-5</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3.531499337122849E-5</v>
-      </c>
-      <c r="M6" s="7">
-        <v>6.213068020168318E-7</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5.0285482408190391E-5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>7.3074851714662907E-5</v>
-      </c>
-      <c r="P6" s="11">
-        <v>-8.8742009318327771E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6.2298253969366092E-5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.1992846960803762E-4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2.8277111444181178E-5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4.4755680376854053E-5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.4089303398761314E-5</v>
-      </c>
-      <c r="G7" s="7">
-        <f>VARP(Ret!$F$2:$F$6)</f>
-        <v>7.6755142990217709E-5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1.269171867166288E-4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3.7666000573613146E-5</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2.4682084802726011E-5</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-1.4173711140554623E-4</v>
-      </c>
-      <c r="L7" s="7">
-        <v>4.469477746203065E-5</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1.1833720904868143E-4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3.3546965664795272E-7</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1.3699884184228839E-4</v>
-      </c>
-      <c r="P7" s="11">
-        <v>-5.1684117671183122E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8.5568954660789038E-5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.7819534286519519E-4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3.3399937272727926E-5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6.1321717231050408E-5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2.5631087335326931E-5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.269171867166288E-4</v>
-      </c>
-      <c r="H8" s="7">
-        <f>VARP(Ret!$G$2:$G$6)</f>
-        <v>2.4105272690185398E-4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.215372873494879E-4</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4.901933717097722E-5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>-2.5446035101132653E-4</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2.3125141106897352E-5</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2.6951848800286018E-4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>-4.113430818946258E-5</v>
-      </c>
-      <c r="O8" s="7">
-        <v>2.5474549691664099E-4</v>
-      </c>
-      <c r="P8" s="11">
-        <v>-1.0910010099788228E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5.592755657760953E-5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1.8469299484625981E-5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2.9933599757245755E-5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.558034258140981E-5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3.1843568980964774E-5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>3.7666000573613146E-5</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1.215372873494879E-4</v>
-      </c>
-      <c r="I9" s="7">
-        <f>VARP(Ret!$H$2:$H$6)</f>
-        <v>6.4938827445019107E-4</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.8501423426609697E-4</v>
-      </c>
-      <c r="K9" s="7">
-        <v>-1.9372661656356617E-4</v>
-      </c>
-      <c r="L9" s="7">
-        <v>5.3812819192670179E-5</v>
-      </c>
-      <c r="M9" s="7">
-        <v>3.547716089702568E-4</v>
-      </c>
-      <c r="N9" s="7">
-        <v>5.1682511957222937E-5</v>
-      </c>
-      <c r="O9" s="7">
-        <v>3.3054489842823795E-4</v>
-      </c>
-      <c r="P9" s="11">
-        <v>-8.0268366354271014E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="7">
-        <v>9.5116067372660716E-6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3.3876343929874644E-5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2.3068955470990884E-5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2.4837477553110351E-5</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2.776684246786544E-5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2.4682084802726011E-5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4.901933717097722E-5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.8501423426609697E-4</v>
-      </c>
-      <c r="J10" s="7">
-        <f>VARP(Ret!$I$2:$I$6)</f>
-        <v>8.8893794916173336E-5</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-6.8334083572793434E-5</v>
-      </c>
-      <c r="L10" s="7">
-        <v>-4.1047806980470943E-6</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4.9075262048662833E-5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>9.2101336536136365E-5</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1.9333902145965672E-4</v>
-      </c>
-      <c r="P10" s="11">
-        <v>-3.4084026886113366E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7">
-        <v>-1.2009183283326962E-4</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-1.9854924116245574E-4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-4.9120169390436442E-5</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-7.7580705559127059E-5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-4.0495007618324846E-5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>-1.4173711140554623E-4</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-2.5446035101132653E-4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-1.9372661656356617E-4</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-6.8334083572793434E-5</v>
-      </c>
-      <c r="K11" s="7">
-        <f>VARP(Ret!$J$2:$J$6)</f>
-        <v>2.9134558412169441E-4</v>
-      </c>
-      <c r="L11" s="7">
-        <v>-8.336559753305541E-5</v>
-      </c>
-      <c r="M11" s="7">
-        <v>-3.0757619406539174E-4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2.21398573117305E-5</v>
-      </c>
-      <c r="O11" s="7">
-        <v>-2.8421560330931585E-4</v>
-      </c>
-      <c r="P11" s="11">
-        <v>1.1004553846684817E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1.1276948518347595E-4</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7.5186690714830581E-5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4.14949784159477E-5</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.5948697959079578E-5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3.531499337122849E-5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4.469477746203065E-5</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2.3125141106897352E-5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5.3812819192670179E-5</v>
-      </c>
-      <c r="J12" s="7">
-        <v>-4.1047806980470943E-6</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-8.336559753305541E-5</v>
-      </c>
-      <c r="L12" s="7">
-        <f>VARP(Ret!$K$2:$K$6)</f>
-        <v>2.0301541767575083E-4</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6.6717420824423911E-5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1.0617395988245682E-5</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-2.5220252228811445E-5</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1.7563755466000983E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.150203993487178E-4</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.0303929990594699E-4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1.5630900780364861E-5</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3.7671191422220684E-5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6.213068020168318E-7</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1.1833720904868143E-4</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2.6951848800286018E-4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3.547716089702568E-4</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4.9075262048662833E-5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-3.0757619406539174E-4</v>
-      </c>
-      <c r="L13" s="7">
-        <v>6.6717420824423911E-5</v>
-      </c>
-      <c r="M13" s="7">
-        <f>VARP(Ret!$L$2:$L$6)</f>
-        <v>5.0501629957473769E-4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>-1.7261781380501187E-4</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2.0056312694925741E-4</v>
-      </c>
-      <c r="P13" s="11">
-        <v>-1.2389192335690412E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-9.9324804630590892E-6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.2961132282567696E-5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3.8443837656990305E-5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3.5084785377402027E-5</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5.0285482408190391E-5</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3.3546965664795272E-7</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-4.113430818946258E-5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.1682511957222937E-5</v>
-      </c>
-      <c r="J14" s="7">
-        <v>9.2101336536136365E-5</v>
-      </c>
-      <c r="K14" s="7">
-        <v>2.21398573117305E-5</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1.0617395988245682E-5</v>
-      </c>
-      <c r="M14" s="7">
-        <v>-1.7261781380501187E-4</v>
-      </c>
-      <c r="N14" s="7">
-        <f>VARP(Ret!$M$2:$M$6)</f>
-        <v>2.1767600680760483E-4</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1.7517976158779397E-4</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1.2114976742215677E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="7">
-        <v>5.943166330378605E-5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.1145788275876563E-4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>6.75335618439266E-5</v>
-      </c>
-      <c r="E15" s="7">
-        <v>9.3153218976990804E-5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7.3074851714662907E-5</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1.3699884184228839E-4</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2.5474549691664099E-4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3.3054489842823795E-4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1.9333902145965672E-4</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-2.8421560330931585E-4</v>
-      </c>
-      <c r="L15" s="7">
-        <v>-2.5220252228811445E-5</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2.0056312694925741E-4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1.7517976158779397E-4</v>
-      </c>
-      <c r="O15" s="7">
-        <f>VARP(Ret!$N$2:$N$6)</f>
-        <v>5.5188464069836685E-4</v>
-      </c>
-      <c r="P15" s="11">
-        <v>-1.3835516503073192E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-2.3596091963526755E-5</v>
-      </c>
-      <c r="C16" s="11">
-        <v>-6.8057806956952651E-5</v>
-      </c>
-      <c r="D16" s="11">
-        <v>-1.1016522430175969E-5</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-2.2479301906087128E-5</v>
-      </c>
-      <c r="F16" s="11">
-        <v>-8.8742009318327771E-6</v>
-      </c>
-      <c r="G16" s="11">
-        <v>-5.1684117671183122E-5</v>
-      </c>
-      <c r="H16" s="11">
-        <v>-1.0910010099788228E-4</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-8.0268366354271014E-5</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-3.4084026886113366E-5</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1.1004553846684817E-4</v>
-      </c>
-      <c r="L16" s="11">
-        <v>1.7563755466000983E-5</v>
-      </c>
-      <c r="M16" s="11">
-        <v>-1.2389192335690412E-4</v>
-      </c>
-      <c r="N16" s="11">
-        <v>1.2114976742215677E-5</v>
-      </c>
-      <c r="O16" s="11">
-        <v>-1.3835516503073192E-4</v>
-      </c>
-      <c r="P16" s="11">
-        <f>VARP(Ret!$O$2:$O$6)</f>
-        <v>5.5080717698055331E-5</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <f>VARP(Ret!$A$2:$A$3)</f>
+        <v>6.8003138129584293E-6</v>
+      </c>
+      <c r="C2">
+        <v>6.0409162101172312E-6</v>
+      </c>
+      <c r="D2">
+        <v>-5.452812397196717E-5</v>
+      </c>
+      <c r="E2">
+        <v>-1.1479517039711683E-5</v>
+      </c>
+      <c r="F2">
+        <v>-7.2152483462848189E-5</v>
+      </c>
+      <c r="G2">
+        <v>2.8049846754977583E-6</v>
+      </c>
+      <c r="H2">
+        <v>-1.0031455800248894E-6</v>
+      </c>
+      <c r="I2">
+        <v>-3.1543893627259281E-5</v>
+      </c>
+      <c r="J2">
+        <v>1.867004196924043E-5</v>
+      </c>
+      <c r="K2">
+        <v>-8.3719066755415183E-6</v>
+      </c>
+      <c r="L2">
+        <v>-1.9249095775357414E-5</v>
+      </c>
+      <c r="M2">
+        <v>4.6774358440633541E-6</v>
+      </c>
+      <c r="N2">
+        <v>7.7804841333975611E-6</v>
+      </c>
+      <c r="O2">
+        <v>2.384019565664119E-5</v>
+      </c>
+      <c r="P2">
+        <v>4.6382006032887498E-6</v>
+      </c>
+      <c r="Q2">
+        <v>4.9519168570894548E-6</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.2784267500200414E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>6.0409162101172312E-6</v>
+      </c>
+      <c r="C3">
+        <f>VARP(Ret!$B$2:$B$3)</f>
+        <v>5.3663212700740434E-6</v>
+      </c>
+      <c r="D3">
+        <v>-4.8438915772070134E-5</v>
+      </c>
+      <c r="E3">
+        <v>-1.0197588299140923E-5</v>
+      </c>
+      <c r="F3">
+        <v>-6.4095146038755242E-5</v>
+      </c>
+      <c r="G3">
+        <v>2.491749331193462E-6</v>
+      </c>
+      <c r="H3">
+        <v>-8.9112334550388668E-7</v>
+      </c>
+      <c r="I3">
+        <v>-2.8021356599751536E-5</v>
+      </c>
+      <c r="J3">
+        <v>1.6585140374056882E-5</v>
+      </c>
+      <c r="K3">
+        <v>-7.4370077818314038E-6</v>
+      </c>
+      <c r="L3">
+        <v>-1.7099530683109456E-5</v>
+      </c>
+      <c r="M3">
+        <v>4.1551020716635299E-6</v>
+      </c>
+      <c r="N3">
+        <v>6.9116299654344451E-6</v>
+      </c>
+      <c r="O3">
+        <v>2.1177938012233697E-5</v>
+      </c>
+      <c r="P3">
+        <v>4.1202482680711856E-6</v>
+      </c>
+      <c r="Q3">
+        <v>4.398931525210089E-6</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2.0239926371534536E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>-5.452812397196717E-5</v>
+      </c>
+      <c r="C4">
+        <v>-4.8438915772070134E-5</v>
+      </c>
+      <c r="D4">
+        <f>VARP(Ret!$C$2:$C$3)</f>
+        <v>4.3723221981849974E-4</v>
+      </c>
+      <c r="E4">
+        <v>9.2048182701055399E-5</v>
+      </c>
+      <c r="F4">
+        <v>5.785526479160951E-4</v>
+      </c>
+      <c r="G4">
+        <v>-2.2491690285461954E-5</v>
+      </c>
+      <c r="H4">
+        <v>8.0436944608783253E-6</v>
+      </c>
+      <c r="I4">
+        <v>2.5293381887584571E-4</v>
+      </c>
+      <c r="J4">
+        <v>-1.4970520347467315E-4</v>
+      </c>
+      <c r="K4">
+        <v>6.7129896890312534E-5</v>
+      </c>
+      <c r="L4">
+        <v>1.5434833004130584E-4</v>
+      </c>
+      <c r="M4">
+        <v>-3.7505887020977185E-5</v>
+      </c>
+      <c r="N4">
+        <v>-6.2387591963679759E-5</v>
+      </c>
+      <c r="O4">
+        <v>-1.9116193458662534E-4</v>
+      </c>
+      <c r="P4">
+        <v>-3.7191280352539215E-5</v>
+      </c>
+      <c r="Q4">
+        <v>-3.9706805260620468E-5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>-1.8269500452963659E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>-1.1479517039711683E-5</v>
+      </c>
+      <c r="C5">
+        <v>-1.0197588299140923E-5</v>
+      </c>
+      <c r="D5">
+        <v>9.2048182701055399E-5</v>
+      </c>
+      <c r="E5">
+        <f>VARP(Ret!$D$2:$D$3)</f>
+        <v>1.9378416215721844E-5</v>
+      </c>
+      <c r="F5">
+        <v>1.2179962368662299E-4</v>
+      </c>
+      <c r="G5">
+        <v>-4.7350563906547617E-6</v>
+      </c>
+      <c r="H5">
+        <v>1.6933963778647127E-6</v>
+      </c>
+      <c r="I5">
+        <v>5.3248816797682864E-5</v>
+      </c>
+      <c r="J5">
+        <v>-3.1516643321609892E-5</v>
+      </c>
+      <c r="K5">
+        <v>1.413250152568251E-5</v>
+      </c>
+      <c r="L5">
+        <v>3.2494136157538001E-5</v>
+      </c>
+      <c r="M5">
+        <v>-7.8959156813858791E-6</v>
+      </c>
+      <c r="N5">
+        <v>-1.3134129195088909E-5</v>
+      </c>
+      <c r="O5">
+        <v>-4.0244309277164523E-5</v>
+      </c>
+      <c r="P5">
+        <v>-7.8296832063240689E-6</v>
+      </c>
+      <c r="Q5">
+        <v>-8.3592633375052467E-6</v>
+      </c>
+      <c r="R5" s="9">
+        <v>-3.8461811351631317E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>-7.2152483462848189E-5</v>
+      </c>
+      <c r="C6">
+        <v>-6.4095146038755242E-5</v>
+      </c>
+      <c r="D6">
+        <v>5.785526479160951E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.2179962368662299E-4</v>
+      </c>
+      <c r="F6">
+        <f>VARP(Ret!$E$2:$E$3)</f>
+        <v>7.6555009269370095E-4</v>
+      </c>
+      <c r="G6">
+        <v>-2.9761363369251289E-5</v>
+      </c>
+      <c r="H6">
+        <v>1.0643544822247977E-5</v>
+      </c>
+      <c r="I6">
+        <v>3.3468606389276646E-4</v>
+      </c>
+      <c r="J6">
+        <v>-1.9809231330903234E-4</v>
+      </c>
+      <c r="K6">
+        <v>8.8827350409690625E-5</v>
+      </c>
+      <c r="L6">
+        <v>2.0423617244834741E-4</v>
+      </c>
+      <c r="M6">
+        <v>-4.9628387993537662E-5</v>
+      </c>
+      <c r="N6">
+        <v>-8.2552256882347484E-5</v>
+      </c>
+      <c r="O6">
+        <v>-2.529485212269253E-4</v>
+      </c>
+      <c r="P6">
+        <v>-4.9212095431309728E-5</v>
+      </c>
+      <c r="Q6">
+        <v>-5.2540678116898275E-5</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-2.4174494431252345E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2.8049846754977583E-6</v>
+      </c>
+      <c r="C7">
+        <v>2.491749331193462E-6</v>
+      </c>
+      <c r="D7">
+        <v>-2.2491690285461954E-5</v>
+      </c>
+      <c r="E7">
+        <v>-4.7350563906547617E-6</v>
+      </c>
+      <c r="F7">
+        <v>-2.9761363369251289E-5</v>
+      </c>
+      <c r="G7">
+        <f>VARP(Ret!$F$2:$F$3)</f>
+        <v>1.1569964631315111E-6</v>
+      </c>
+      <c r="H7">
+        <v>-4.1377619572514952E-7</v>
+      </c>
+      <c r="I7">
+        <v>-1.3011184581127587E-5</v>
+      </c>
+      <c r="J7">
+        <v>7.7009948445065274E-6</v>
+      </c>
+      <c r="K7">
+        <v>-3.4532332735649436E-6</v>
+      </c>
+      <c r="L7">
+        <v>-7.9398422120135542E-6</v>
+      </c>
+      <c r="M7">
+        <v>1.9293427074233512E-6</v>
+      </c>
+      <c r="N7">
+        <v>3.2092840657656611E-6</v>
+      </c>
+      <c r="O7">
+        <v>9.8335731728025678E-6</v>
+      </c>
+      <c r="P7">
+        <v>1.9131590058855611E-6</v>
+      </c>
+      <c r="Q7">
+        <v>2.0425602818514887E-6</v>
+      </c>
+      <c r="R7" s="9">
+        <v>9.3980252879977569E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>-1.0031455800248894E-6</v>
+      </c>
+      <c r="C8">
+        <v>-8.9112334550388668E-7</v>
+      </c>
+      <c r="D8">
+        <v>8.0436944608783253E-6</v>
+      </c>
+      <c r="E8">
+        <v>1.6933963778647127E-6</v>
+      </c>
+      <c r="F8">
+        <v>1.0643544822247977E-5</v>
+      </c>
+      <c r="G8">
+        <v>-4.1377619572514952E-7</v>
+      </c>
+      <c r="H8">
+        <f>VARP(Ret!$G$2:$G$3)</f>
+        <v>1.4797862016395498E-7</v>
+      </c>
+      <c r="I8">
+        <v>4.6531848881242004E-6</v>
+      </c>
+      <c r="J8">
+        <v>-2.7541037951269041E-6</v>
+      </c>
+      <c r="K8">
+        <v>1.2349784743678974E-6</v>
+      </c>
+      <c r="L8">
+        <v>2.8395226863986497E-6</v>
+      </c>
+      <c r="M8">
+        <v>-6.8999008308718837E-7</v>
+      </c>
+      <c r="N8">
+        <v>-1.1477350139340191E-6</v>
+      </c>
+      <c r="O8">
+        <v>-3.5167769543688223E-6</v>
+      </c>
+      <c r="P8">
+        <v>-6.8420231219207824E-7</v>
+      </c>
+      <c r="Q8">
+        <v>-7.3048004025551802E-7</v>
+      </c>
+      <c r="R8" s="9">
+        <v>-3.3610121334955663E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>-3.1543893627259281E-5</v>
+      </c>
+      <c r="C9">
+        <v>-2.8021356599751536E-5</v>
+      </c>
+      <c r="D9">
+        <v>2.5293381887584571E-4</v>
+      </c>
+      <c r="E9">
+        <v>5.3248816797682864E-5</v>
+      </c>
+      <c r="F9">
+        <v>3.3468606389276646E-4</v>
+      </c>
+      <c r="G9">
+        <v>-1.3011184581127587E-5</v>
+      </c>
+      <c r="H9">
+        <v>4.6531848881242004E-6</v>
+      </c>
+      <c r="I9">
+        <f>VARP(Ret!$H$2:$H$3)</f>
+        <v>1.4631931004004258E-4</v>
+      </c>
+      <c r="J9">
+        <v>-8.660274129878403E-5</v>
+      </c>
+      <c r="K9">
+        <v>3.8833874567287987E-5</v>
+      </c>
+      <c r="L9">
+        <v>8.9288736705320638E-5</v>
+      </c>
+      <c r="M9">
+        <v>-2.1696725000000539E-5</v>
+      </c>
+      <c r="N9">
+        <v>-3.6090505618254705E-5</v>
+      </c>
+      <c r="O9">
+        <v>-1.1058498424192288E-4</v>
+      </c>
+      <c r="P9">
+        <v>-2.1514728654614884E-5</v>
+      </c>
+      <c r="Q9">
+        <v>-2.2969930930747287E-5</v>
+      </c>
+      <c r="R9" s="9">
+        <v>-1.0568696242102908E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1.867004196924043E-5</v>
+      </c>
+      <c r="C10">
+        <v>1.6585140374056882E-5</v>
+      </c>
+      <c r="D10">
+        <v>-1.4970520347467315E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.1516643321609892E-5</v>
+      </c>
+      <c r="F10">
+        <v>-1.9809231330903234E-4</v>
+      </c>
+      <c r="G10">
+        <v>7.7009948445065274E-6</v>
+      </c>
+      <c r="H10">
+        <v>-2.7541037951269041E-6</v>
+      </c>
+      <c r="I10">
+        <v>-8.660274129878403E-5</v>
+      </c>
+      <c r="J10">
+        <f>VARP(Ret!$I$2:$I$3)</f>
+        <v>5.1257997310208837E-5</v>
+      </c>
+      <c r="K10">
+        <v>-2.2984799421620422E-5</v>
+      </c>
+      <c r="L10">
+        <v>-5.2847770835373434E-5</v>
+      </c>
+      <c r="M10">
+        <v>1.2841749060268873E-5</v>
+      </c>
+      <c r="N10">
+        <v>2.1361067931120447E-5</v>
+      </c>
+      <c r="O10">
+        <v>6.5452487297899836E-5</v>
+      </c>
+      <c r="P10">
+        <v>1.2734029973755654E-5</v>
+      </c>
+      <c r="Q10">
+        <v>1.3595327817647942E-5</v>
+      </c>
+      <c r="R10" s="9">
+        <v>6.2553470643744079E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>-8.3719066755415183E-6</v>
+      </c>
+      <c r="C11">
+        <v>-7.4370077818314038E-6</v>
+      </c>
+      <c r="D11">
+        <v>6.7129896890312534E-5</v>
+      </c>
+      <c r="E11">
+        <v>1.413250152568251E-5</v>
+      </c>
+      <c r="F11">
+        <v>8.8827350409690625E-5</v>
+      </c>
+      <c r="G11">
+        <v>-3.4532332735649436E-6</v>
+      </c>
+      <c r="H11">
+        <v>1.2349784743678974E-6</v>
+      </c>
+      <c r="I11">
+        <v>3.8833874567287987E-5</v>
+      </c>
+      <c r="J11">
+        <v>-2.2984799421620422E-5</v>
+      </c>
+      <c r="K11">
+        <f>VARP(Ret!$J$2:$J$3)</f>
+        <v>1.030670397157524E-5</v>
+      </c>
+      <c r="L11">
+        <v>2.3697675997358846E-5</v>
+      </c>
+      <c r="M11">
+        <v>-5.7584190148270958E-6</v>
+      </c>
+      <c r="N11">
+        <v>-9.5786001715409516E-6</v>
+      </c>
+      <c r="O11">
+        <v>-2.9349806296251052E-5</v>
+      </c>
+      <c r="P11">
+        <v>-5.7101162771605697E-6</v>
+      </c>
+      <c r="Q11">
+        <v>-6.0963342182231159E-6</v>
+      </c>
+      <c r="R11" s="9">
+        <v>-2.8049846878943961E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>-1.9249095775357414E-5</v>
+      </c>
+      <c r="C12">
+        <v>-1.7099530683109456E-5</v>
+      </c>
+      <c r="D12">
+        <v>1.5434833004130584E-4</v>
+      </c>
+      <c r="E12">
+        <v>3.2494136157538001E-5</v>
+      </c>
+      <c r="F12">
+        <v>2.0423617244834741E-4</v>
+      </c>
+      <c r="G12">
+        <v>-7.9398422120135542E-6</v>
+      </c>
+      <c r="H12">
+        <v>2.8395226863986497E-6</v>
+      </c>
+      <c r="I12">
+        <v>8.9288736705320638E-5</v>
+      </c>
+      <c r="J12">
+        <v>-5.2847770835373434E-5</v>
+      </c>
+      <c r="K12">
+        <v>2.3697675997358846E-5</v>
+      </c>
+      <c r="L12">
+        <f>VARP(Ret!$K$2:$K$3)</f>
+        <v>5.4486851395419247E-5</v>
+      </c>
+      <c r="M12">
+        <v>-1.3240037595602596E-5</v>
+      </c>
+      <c r="N12">
+        <v>-2.2023584261218554E-5</v>
+      </c>
+      <c r="O12">
+        <v>-6.7482504796099088E-5</v>
+      </c>
+      <c r="P12">
+        <v>-1.3128977587459973E-5</v>
+      </c>
+      <c r="Q12">
+        <v>-1.401698869721036E-5</v>
+      </c>
+      <c r="R12" s="9">
+        <v>-6.4493574759297956E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>4.6774358440633541E-6</v>
+      </c>
+      <c r="C13">
+        <v>4.1551020716635299E-6</v>
+      </c>
+      <c r="D13">
+        <v>-3.7505887020977185E-5</v>
+      </c>
+      <c r="E13">
+        <v>-7.8959156813858791E-6</v>
+      </c>
+      <c r="F13">
+        <v>-4.9628387993537662E-5</v>
+      </c>
+      <c r="G13">
+        <v>1.9293427074233512E-6</v>
+      </c>
+      <c r="H13">
+        <v>-6.8999008308718837E-7</v>
+      </c>
+      <c r="I13">
+        <v>-2.1696725000000539E-5</v>
+      </c>
+      <c r="J13">
+        <v>1.2841749060268873E-5</v>
+      </c>
+      <c r="K13">
+        <v>-5.7584190148270958E-6</v>
+      </c>
+      <c r="L13">
+        <v>-1.3240037595602596E-5</v>
+      </c>
+      <c r="M13">
+        <f>VARP(Ret!$L$2:$L$3)</f>
+        <v>3.2172641847259998E-6</v>
+      </c>
+      <c r="N13">
+        <v>5.3516229354550265E-6</v>
+      </c>
+      <c r="O13">
+        <v>1.6397917619825976E-5</v>
+      </c>
+      <c r="P13">
+        <v>3.1902771475689973E-6</v>
+      </c>
+      <c r="Q13">
+        <v>3.4060594909656346E-6</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1.5671622283531321E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>7.7804841333975611E-6</v>
+      </c>
+      <c r="C14">
+        <v>6.9116299654344451E-6</v>
+      </c>
+      <c r="D14">
+        <v>-6.2387591963679759E-5</v>
+      </c>
+      <c r="E14">
+        <v>-1.3134129195088909E-5</v>
+      </c>
+      <c r="F14">
+        <v>-8.2552256882347484E-5</v>
+      </c>
+      <c r="G14">
+        <v>3.2092840657656611E-6</v>
+      </c>
+      <c r="H14">
+        <v>-1.1477350139340191E-6</v>
+      </c>
+      <c r="I14">
+        <v>-3.6090505618254705E-5</v>
+      </c>
+      <c r="J14">
+        <v>2.1361067931120447E-5</v>
+      </c>
+      <c r="K14">
+        <v>-9.5786001715409516E-6</v>
+      </c>
+      <c r="L14">
+        <v>-2.2023584261218554E-5</v>
+      </c>
+      <c r="M14">
+        <v>5.3516229354550265E-6</v>
+      </c>
+      <c r="N14">
+        <f>VARP(Ret!$M$2:$M$3)</f>
+        <v>8.901932324754798E-6</v>
+      </c>
+      <c r="O14">
+        <v>2.7276427109897574E-5</v>
+      </c>
+      <c r="P14">
+        <v>5.3067324823504754E-6</v>
+      </c>
+      <c r="Q14">
+        <v>5.6656665554272338E-6</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2.6068301647872599E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2.384019565664119E-5</v>
+      </c>
+      <c r="C15">
+        <v>2.1177938012233697E-5</v>
+      </c>
+      <c r="D15">
+        <v>-1.9116193458662534E-4</v>
+      </c>
+      <c r="E15">
+        <v>-4.0244309277164523E-5</v>
+      </c>
+      <c r="F15">
+        <v>-2.529485212269253E-4</v>
+      </c>
+      <c r="G15">
+        <v>9.8335731728025678E-6</v>
+      </c>
+      <c r="H15">
+        <v>-3.5167769543688223E-6</v>
+      </c>
+      <c r="I15">
+        <v>-1.1058498424192288E-4</v>
+      </c>
+      <c r="J15">
+        <v>6.5452487297899836E-5</v>
+      </c>
+      <c r="K15">
+        <v>-2.9349806296251052E-5</v>
+      </c>
+      <c r="L15">
+        <v>-6.7482504796099088E-5</v>
+      </c>
+      <c r="M15">
+        <v>1.6397917619825976E-5</v>
+      </c>
+      <c r="N15">
+        <v>2.7276427109897574E-5</v>
+      </c>
+      <c r="O15">
+        <f>VARP(Ret!$N$2:$N$3)</f>
+        <v>8.3577750171454906E-5</v>
+      </c>
+      <c r="P15">
+        <v>1.6260368700404114E-5</v>
+      </c>
+      <c r="Q15">
+        <v>1.736017924988574E-5</v>
+      </c>
+      <c r="R15" s="9">
+        <v>7.9875930734690846E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>4.6382006032887498E-6</v>
+      </c>
+      <c r="C16">
+        <v>4.1202482680711856E-6</v>
+      </c>
+      <c r="D16">
+        <v>-3.7191280352539215E-5</v>
+      </c>
+      <c r="E16">
+        <v>-7.8296832063240689E-6</v>
+      </c>
+      <c r="F16">
+        <v>-4.9212095431309728E-5</v>
+      </c>
+      <c r="G16">
+        <v>1.9131590058855611E-6</v>
+      </c>
+      <c r="H16">
+        <v>-6.8420231219207824E-7</v>
+      </c>
+      <c r="I16">
+        <v>-2.1514728654614884E-5</v>
+      </c>
+      <c r="J16">
+        <v>1.2734029973755654E-5</v>
+      </c>
+      <c r="K16">
+        <v>-5.7101162771605697E-6</v>
+      </c>
+      <c r="L16">
+        <v>-1.3128977587459973E-5</v>
+      </c>
+      <c r="M16">
+        <v>3.1902771475689973E-6</v>
+      </c>
+      <c r="N16">
+        <v>5.3067324823504754E-6</v>
+      </c>
+      <c r="O16">
+        <v>1.6260368700404114E-5</v>
+      </c>
+      <c r="P16">
+        <f>VARP(Ret!$O$2:$O$3)</f>
+        <v>3.1635164829237612E-6</v>
+      </c>
+      <c r="Q16">
+        <v>3.3774888020933808E-6</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1.5540165670523273E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>4.9519168570894548E-6</v>
+      </c>
+      <c r="C17">
+        <v>4.398931525210089E-6</v>
+      </c>
+      <c r="D17">
+        <v>-3.9706805260620468E-5</v>
+      </c>
+      <c r="E17">
+        <v>-8.3592633375052467E-6</v>
+      </c>
+      <c r="F17">
+        <v>-5.2540678116898275E-5</v>
+      </c>
+      <c r="G17">
+        <v>2.0425602818514887E-6</v>
+      </c>
+      <c r="H17">
+        <v>-7.3048004025551802E-7</v>
+      </c>
+      <c r="I17">
+        <v>-2.2969930930747287E-5</v>
+      </c>
+      <c r="J17">
+        <v>1.3595327817647942E-5</v>
+      </c>
+      <c r="K17">
+        <v>-6.0963342182231159E-6</v>
+      </c>
+      <c r="L17">
+        <v>-1.401698869721036E-5</v>
+      </c>
+      <c r="M17">
+        <v>3.4060594909656346E-6</v>
+      </c>
+      <c r="N17">
+        <v>5.6656665554272338E-6</v>
+      </c>
+      <c r="O17">
+        <v>1.736017924988574E-5</v>
+      </c>
+      <c r="P17">
+        <v>3.3774888020933808E-6</v>
+      </c>
+      <c r="Q17">
+        <f>VARP(Ret!$P$2:$P$3)</f>
+        <v>3.6059336721784023E-6</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.6591263493705412E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.2784267500200414E-5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.0239926371534536E-5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-1.8269500452963659E-4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-3.8461811351631317E-5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-2.4174494431252345E-4</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9.3980252879977569E-6</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-3.3610121334955663E-6</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-1.0568696242102908E-4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.2553470643744079E-5</v>
+      </c>
+      <c r="K18" s="9">
+        <v>-2.8049846878943961E-5</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-6.4493574759297956E-5</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1.5671622283531321E-5</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2.6068301647872599E-5</v>
+      </c>
+      <c r="O18" s="9">
+        <v>7.9875930734690846E-5</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.5540165670523273E-5</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1.6591263493705412E-5</v>
+      </c>
+      <c r="R18" s="9">
+        <f>VARP(Ret!$Q$2:$Q$3)</f>
+        <v>7.6338072006539931E-5</v>
       </c>
     </row>
   </sheetData>
@@ -6511,592 +6546,649 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54345AFC-AA12-4038-8F3E-E84E783F7C93}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="2"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
         <f>AVERAGE(Ret!A2:A6)</f>
-        <v>3.8959902210919937E-4</v>
-      </c>
-      <c r="C2" s="5">
+        <v>-1.7946971401286316E-2</v>
+      </c>
+      <c r="C2" s="4">
         <f>AVERAGE(Ret!B2:B6)</f>
-        <v>4.1570610048389913E-3</v>
-      </c>
-      <c r="D2" s="5">
+        <v>1.0703207154144634E-3</v>
+      </c>
+      <c r="D2" s="4">
         <f>AVERAGE(Ret!C2:C6)</f>
-        <v>1.9736082707500378E-3</v>
-      </c>
-      <c r="E2" s="5">
+        <v>1.3108351420124398E-2</v>
+      </c>
+      <c r="E2" s="4">
         <f>AVERAGE(Ret!D2:D6)</f>
-        <v>1.9516168920192811E-3</v>
-      </c>
-      <c r="F2" s="5">
+        <v>7.013670630458213E-3</v>
+      </c>
+      <c r="F2" s="4">
         <f>AVERAGE(Ret!E2:E6)</f>
-        <v>2.7054371091867592E-3</v>
-      </c>
-      <c r="G2" s="5">
+        <v>1.3807166499682944E-2</v>
+      </c>
+      <c r="G2" s="4">
         <f>AVERAGE(Ret!F2:F6)</f>
-        <v>-2.1016431887257215E-3</v>
-      </c>
-      <c r="H2" s="5">
+        <v>4.9522827680757997E-3</v>
+      </c>
+      <c r="H2" s="4">
         <f>AVERAGE(Ret!G2:G6)</f>
-        <v>5.6740977121815025E-3</v>
-      </c>
-      <c r="I2" s="5">
+        <v>5.7684389651391221E-4</v>
+      </c>
+      <c r="I2" s="4">
         <f>AVERAGE(Ret!H2:H6)</f>
-        <v>2.2299671299149559E-2</v>
-      </c>
-      <c r="J2" s="5">
+        <v>-6.1883399095637448E-3</v>
+      </c>
+      <c r="J2" s="4">
         <f>AVERAGE(Ret!I2:I6)</f>
-        <v>2.3054027492880325E-3</v>
-      </c>
-      <c r="K2" s="5">
+        <v>1.1999241388942039E-2</v>
+      </c>
+      <c r="K2" s="4">
         <f>AVERAGE(Ret!J2:J6)</f>
-        <v>1.3564086649615725E-2</v>
-      </c>
-      <c r="L2" s="5">
+        <v>8.0530391521036471E-3</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(Ret!K2:K6)</f>
-        <v>5.3115681724447139E-4</v>
-      </c>
-      <c r="M2" s="5">
+        <v>1.4843363854935898E-2</v>
+      </c>
+      <c r="M2" s="4">
         <f>AVERAGE(Ret!L2:L6)</f>
-        <v>2.6586583953514208E-3</v>
-      </c>
-      <c r="N2" s="5">
+        <v>-3.2161309766270962E-4</v>
+      </c>
+      <c r="N2" s="4">
         <f>AVERAGE(Ret!M2:M6)</f>
-        <v>2.9240172424485067E-3</v>
-      </c>
-      <c r="O2" s="5">
+        <v>-1.5746315280422696E-3</v>
+      </c>
+      <c r="O2" s="4">
         <f>AVERAGE(Ret!N2:N6)</f>
-        <v>-1.5035399132207684E-2</v>
-      </c>
-      <c r="P2" s="5">
+        <v>2.2066793163353915E-3</v>
+      </c>
+      <c r="P2" s="4">
         <f>AVERAGE(Ret!O2:O6)</f>
-        <v>7.0817790097741137E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.0943315328499579E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>AVERAGE(Ret!P2:P6)</f>
+        <v>4.8579599319208411E-3</v>
+      </c>
+      <c r="R2" s="4">
+        <f>AVERAGE(Ret!Q2:Q6)</f>
+        <v>9.2888758713988162E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
         <f>B2*252</f>
-        <v>9.8178953571518235E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:P3" si="0">C2*252</f>
-        <v>1.0475793732194258</v>
-      </c>
-      <c r="D3" s="6">
+        <v>-4.5226367931241516</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:R3" si="0">C2*252</f>
+        <v>0.26972082028444477</v>
+      </c>
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49734928422900954</v>
-      </c>
-      <c r="E3" s="6">
+        <v>3.303304557871348</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49180745678885884</v>
-      </c>
-      <c r="F3" s="6">
+        <v>1.7674449988754697</v>
+      </c>
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>0.68177015151506337</v>
-      </c>
-      <c r="G3" s="6">
+        <v>3.4794059579201018</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>-0.52961408355888184</v>
-      </c>
-      <c r="H3" s="6">
+        <v>1.2479752575551015</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>1.4298726234697385</v>
-      </c>
-      <c r="I3" s="6">
+        <v>0.14536466192150588</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>5.6195171673856894</v>
-      </c>
-      <c r="J3" s="6">
+        <v>-1.5594616572100637</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>0.58096149282058418</v>
-      </c>
-      <c r="K3" s="6">
+        <v>3.0238088300133938</v>
+      </c>
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>3.4181498357031628</v>
-      </c>
-      <c r="L3" s="6">
+        <v>2.0293658663301191</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>0.13385151794560679</v>
-      </c>
-      <c r="M3" s="6">
+        <v>3.7405276914438463</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>0.66998191562855802</v>
-      </c>
-      <c r="N3" s="6">
+        <v>-8.1046500611002825E-2</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>0.73685234509702369</v>
-      </c>
-      <c r="O3" s="6">
+        <v>-0.39680714506665193</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>-3.7889205813163365</v>
-      </c>
-      <c r="P3" s="6">
+        <v>0.55608318771651866</v>
+      </c>
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>1.7846083104630766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.2777154627818934</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>1.224205902844052</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3407967195925017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8">
         <f>_xlfn.VAR.S(Ret!A2:A252)</f>
-        <v>1.0623035102052966E-4</v>
-      </c>
-      <c r="C4" s="6">
+        <v>1.3600627625916859E-5</v>
+      </c>
+      <c r="C4" s="5">
         <f>_xlfn.VAR.S(Ret!B2:B252)</f>
-        <v>2.6039348251525235E-4</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1.0732642540148087E-5</v>
+      </c>
+      <c r="D4" s="5">
         <f>_xlfn.VAR.S(Ret!C2:C252)</f>
-        <v>2.5284510420784988E-5</v>
-      </c>
-      <c r="E4" s="6">
+        <v>8.7446443963699948E-4</v>
+      </c>
+      <c r="E4" s="5">
         <f>_xlfn.VAR.S(Ret!D2:D252)</f>
-        <v>4.2081577379285908E-5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>3.8756832431443688E-5</v>
+      </c>
+      <c r="F4" s="5">
         <f>_xlfn.VAR.S(Ret!E2:E252)</f>
-        <v>2.6487233376387482E-5</v>
-      </c>
-      <c r="G4" s="6">
+        <v>1.5311001853874019E-3</v>
+      </c>
+      <c r="G4" s="5">
         <f>_xlfn.VAR.S(Ret!F2:F252)</f>
-        <v>9.5943928737772139E-5</v>
-      </c>
-      <c r="H4" s="6">
+        <v>2.3139929262630221E-6</v>
+      </c>
+      <c r="H4" s="5">
         <f>_xlfn.VAR.S(Ret!G2:G252)</f>
-        <v>3.0131590862731751E-4</v>
-      </c>
-      <c r="I4" s="6">
+        <v>2.9595724032790996E-7</v>
+      </c>
+      <c r="I4" s="5">
         <f>_xlfn.VAR.S(Ret!H2:H252)</f>
-        <v>8.1173534306273887E-4</v>
-      </c>
-      <c r="J4" s="6">
+        <v>2.9263862008008516E-4</v>
+      </c>
+      <c r="J4" s="5">
         <f>_xlfn.VAR.S(Ret!I2:I252)</f>
-        <v>1.1111724364521666E-4</v>
-      </c>
-      <c r="K4" s="6">
+        <v>1.0251599462041767E-4</v>
+      </c>
+      <c r="K4" s="5">
         <f>_xlfn.VAR.S(Ret!J2:J252)</f>
-        <v>3.6418198015211793E-4</v>
-      </c>
-      <c r="L4" s="6">
+        <v>2.0613407943150479E-5</v>
+      </c>
+      <c r="L4" s="5">
         <f>_xlfn.VAR.S(Ret!K2:K252)</f>
-        <v>2.5376927209468851E-4</v>
-      </c>
-      <c r="M4" s="6">
+        <v>1.0897370279083849E-4</v>
+      </c>
+      <c r="M4" s="5">
         <f>_xlfn.VAR.S(Ret!L2:L252)</f>
-        <v>6.3127037446842216E-4</v>
-      </c>
-      <c r="N4" s="6">
+        <v>6.4345283694519995E-6</v>
+      </c>
+      <c r="N4" s="5">
         <f>_xlfn.VAR.S(Ret!M2:M252)</f>
-        <v>2.7209500850950601E-4</v>
-      </c>
-      <c r="O4" s="6">
+        <v>1.7803864649509596E-5</v>
+      </c>
+      <c r="O4" s="5">
         <f>_xlfn.VAR.S(Ret!N2:N252)</f>
-        <v>6.8985580087295851E-4</v>
-      </c>
-      <c r="P4" s="6">
+        <v>1.6715550034290981E-4</v>
+      </c>
+      <c r="P4" s="5">
         <f>_xlfn.VAR.S(Ret!O2:O252)</f>
-        <v>6.8850897122569151E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.3270329658475223E-6</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>_xlfn.VAR.S(Ret!P2:P252)</f>
+        <v>7.2118673443568072E-6</v>
+      </c>
+      <c r="R4" s="5">
+        <f>_xlfn.VAR.S(Ret!Q2:Q252)</f>
+        <v>1.5267614401307986E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
         <f>B4*252</f>
-        <v>2.6770048457173474E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:P5" si="1">C4*252</f>
-        <v>6.5619157593843597E-2</v>
-      </c>
-      <c r="D5" s="6">
+        <v>3.4273581617310484E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:R5" si="1">C4*252</f>
+        <v>2.7046259201173178E-3</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3716966260378167E-3</v>
-      </c>
-      <c r="E5" s="6">
+        <v>0.22036503878852387</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1.0604557499580048E-2</v>
-      </c>
-      <c r="F5" s="6">
+        <v>9.7667217727238093E-3</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>6.6747828108496459E-3</v>
-      </c>
-      <c r="G5" s="6">
+        <v>0.38583724671762526</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>2.417787004191858E-2</v>
-      </c>
-      <c r="H5" s="6">
+        <v>5.8312621741828162E-4</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>7.5931608974084006E-2</v>
-      </c>
-      <c r="I5" s="6">
+        <v>7.458122456263331E-5</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>0.20455730645181019</v>
-      </c>
-      <c r="J5" s="6">
+        <v>7.3744932260181459E-2</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>2.8001545398594598E-2</v>
-      </c>
-      <c r="K5" s="6">
+        <v>2.5834030644345255E-2</v>
+      </c>
+      <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>9.1773858998333721E-2</v>
-      </c>
-      <c r="L5" s="6">
+        <v>5.1945788016739209E-3</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3949856567861507E-2</v>
-      </c>
-      <c r="M5" s="6">
+        <v>2.74613731032913E-2</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>0.15908013436604238</v>
-      </c>
-      <c r="N5" s="6">
+        <v>1.6215011491019038E-3</v>
+      </c>
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>6.8567942144395516E-2</v>
-      </c>
-      <c r="O5" s="6">
+        <v>4.4865738916764182E-3</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>0.17384366181998553</v>
-      </c>
-      <c r="P5" s="6">
+        <v>4.2123186086413272E-2</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
-        <v>1.7350426074887425E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1.5944123073935756E-3</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8173905707779155E-3</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.8474388291296124E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
         <f>_xlfn.STDEV.S(Ret!A2:A252)</f>
-        <v>1.0306810904471357E-2</v>
-      </c>
-      <c r="C6" s="6">
+        <v>3.687902876421349E-3</v>
+      </c>
+      <c r="C6" s="5">
         <f>_xlfn.STDEV.S(Ret!B2:B252)</f>
-        <v>1.6136712258550449E-2</v>
-      </c>
-      <c r="D6" s="6">
+        <v>3.2760712049874751E-3</v>
+      </c>
+      <c r="D6" s="5">
         <f>_xlfn.STDEV.S(Ret!C2:C252)</f>
-        <v>5.0283705532493317E-3</v>
-      </c>
-      <c r="E6" s="6">
+        <v>2.9571344907477568E-2</v>
+      </c>
+      <c r="E6" s="5">
         <f>_xlfn.STDEV.S(Ret!D2:D252)</f>
-        <v>6.4870314766683462E-3</v>
-      </c>
-      <c r="F6" s="6">
+        <v>6.2254985689054404E-3</v>
+      </c>
+      <c r="F6" s="5">
         <f>_xlfn.STDEV.S(Ret!E2:E252)</f>
-        <v>5.146574917009125E-3</v>
-      </c>
-      <c r="G6" s="6">
+        <v>3.9129275298520443E-2</v>
+      </c>
+      <c r="G6" s="5">
         <f>_xlfn.STDEV.S(Ret!F2:F252)</f>
-        <v>9.7950971785772563E-3</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1.521181424506302E-3</v>
+      </c>
+      <c r="H6" s="5">
         <f>_xlfn.STDEV.S(Ret!G2:G252)</f>
-        <v>1.7358453520614027E-2</v>
-      </c>
-      <c r="I6" s="6">
+        <v>5.4401952200992744E-4</v>
+      </c>
+      <c r="I6" s="5">
         <f>_xlfn.STDEV.S(Ret!H2:H252)</f>
-        <v>2.8490969500224783E-2</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1.7106683491550465E-2</v>
+      </c>
+      <c r="J6" s="5">
         <f>_xlfn.STDEV.S(Ret!I2:I252)</f>
-        <v>1.0541216421514959E-2</v>
-      </c>
-      <c r="K6" s="6">
+        <v>1.012501825284368E-2</v>
+      </c>
+      <c r="K6" s="5">
         <f>_xlfn.STDEV.S(Ret!J2:J252)</f>
-        <v>1.9083552608257143E-2</v>
-      </c>
-      <c r="L6" s="6">
+        <v>4.5401991083156784E-3</v>
+      </c>
+      <c r="L6" s="5">
         <f>_xlfn.STDEV.S(Ret!K2:K252)</f>
-        <v>1.5930137227741902E-2</v>
-      </c>
-      <c r="M6" s="6">
+        <v>1.0439047025032433E-2</v>
+      </c>
+      <c r="M6" s="5">
         <f>_xlfn.STDEV.S(Ret!L2:L252)</f>
-        <v>2.5125094516606741E-2</v>
-      </c>
-      <c r="N6" s="6">
+        <v>2.5366372167600158E-3</v>
+      </c>
+      <c r="N6" s="5">
         <f>_xlfn.STDEV.S(Ret!M2:M252)</f>
-        <v>1.6495302619518867E-2</v>
-      </c>
-      <c r="O6" s="6">
+        <v>4.2194626019802089E-3</v>
+      </c>
+      <c r="O6" s="5">
         <f>_xlfn.STDEV.S(Ret!N2:N252)</f>
-        <v>2.6265106146234372E-2</v>
-      </c>
-      <c r="P6" s="6">
+        <v>1.2928863072324256E-2</v>
+      </c>
+      <c r="P6" s="5">
         <f>_xlfn.STDEV.S(Ret!O2:O252)</f>
-        <v>8.2976440706124012E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.5153594108690554E-3</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>_xlfn.STDEV.S(Ret!P2:P252)</f>
+        <v>2.6854920115980249E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <f>_xlfn.STDEV.S(Ret!Q2:Q252)</f>
+        <v>1.2356218839640219E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
         <f>B6*SQRT(252)</f>
-        <v>0.16361555078039947</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" ref="C7:P7" si="2">C6*SQRT(252)</f>
-        <v>0.25616236568599143</v>
-      </c>
-      <c r="D7" s="6">
+        <v>5.8543643222223954E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:R7" si="2">C6*SQRT(252)</f>
+        <v>5.2006018114419392E-2</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>7.9822907902668008E-2</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0.46943054735341189</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>0.10297843220587527</v>
-      </c>
-      <c r="F7" s="6">
+        <v>9.8826726004273807E-2</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>8.1699344005014177E-2</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.62115798853240656</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>0.15549234721335509</v>
-      </c>
-      <c r="H7" s="6">
+        <v>2.41480064895279E-2</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.27555690696130991</v>
-      </c>
-      <c r="I7" s="6">
+        <v>8.6360421816149852E-3</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45228011945232593</v>
-      </c>
-      <c r="J7" s="6">
+        <v>0.27156018165441981</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0.16733662300463278</v>
-      </c>
-      <c r="K7" s="6">
+        <v>0.16072968190208445</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>0.30294200599839854</v>
-      </c>
-      <c r="L7" s="6">
+        <v>7.2073426459922957E-2</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>0.25288308873442189</v>
-      </c>
-      <c r="M7" s="6">
+        <v>0.16571473411646684</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.39884851054760428</v>
-      </c>
-      <c r="N7" s="6">
+        <v>4.0267867451628275E-2</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>0.26185481119199533</v>
-      </c>
-      <c r="O7" s="6">
+        <v>6.6981892267062887E-2</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>0.41694563412990138</v>
-      </c>
-      <c r="P7" s="6">
+        <v>0.20523933854505885</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
-        <v>0.13172101607142053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>3.9930092754632759E-2</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2630864063233756E-2</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19614889316867462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="6">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.5328129423544557E-2</v>
+      </c>
+      <c r="D10" s="5">
         <f>C10*$B$2</f>
-        <v>3.8959902210919937E-5</v>
-      </c>
-      <c r="G10" s="6" cm="1">
-        <f t="array" ref="G10">MMULT(TRANSPOSE(C10:C24),MMULT(Cov!B2:P16,'1'!C10:C24))</f>
-        <v>2.023004281181642E-5</v>
-      </c>
-      <c r="H10" s="6">
+        <v>-9.9297235645102208E-4</v>
+      </c>
+      <c r="G10" s="8" cm="1">
+        <f t="array" ref="G10">MMULT(TRANSPOSE(C10:C26),MMULT(Cov!B2:R18,'1'!C10:C26))</f>
+        <v>1.282190790239145E-16</v>
+      </c>
+      <c r="H10" s="14">
         <f>SQRT(G10)</f>
-        <v>4.4977819880265895E-3</v>
-      </c>
-      <c r="I10" s="9">
-        <f>(D26-B26)/H10</f>
-        <v>1.2519763915512905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1.1323386376164796E-8</v>
+      </c>
+      <c r="I10" s="12">
+        <f>(D29-B29)/H10</f>
+        <v>465245.83426392922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
-        <v>9.610156338712042E-2</v>
-      </c>
-      <c r="D11" s="6">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.1473066808549666E-2</v>
+      </c>
+      <c r="D11" s="5">
         <f>C11*$C$2</f>
-        <v>3.9950006166066085E-4</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.3686275382814082E-5</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="6">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.8756424033205089E-2</v>
+      </c>
+      <c r="D12" s="5">
         <f>C12*$D$2</f>
-        <v>1.973608270750038E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5.0803282601460725E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="6">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.026941599145192E-2</v>
+      </c>
+      <c r="D13" s="5">
         <f>C13*$E$2</f>
-        <v>1.9516168920192812E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4.2270983285411489E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="6">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.7729241005624732E-2</v>
+      </c>
+      <c r="D14" s="5">
         <f>C14*$F$2</f>
-        <v>2.7054371091867591E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.8286224747449639E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.8317230743346044E-2</v>
+      </c>
+      <c r="D15" s="5">
         <f>C15*$G$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.3832624457293088E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="6">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.7108215128973641E-2</v>
+      </c>
+      <c r="D16" s="5">
         <f>C16*$H$2</f>
-        <v>5.6740977121815027E-4</v>
+        <v>3.2942525337951909E-5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -7104,14 +7196,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="6">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.1689984814593152E-2</v>
+      </c>
+      <c r="D17" s="5">
         <f>C17*$I$2</f>
-        <v>2.2299671299149562E-3</v>
+        <v>-1.342249986659784E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -7119,14 +7211,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4.9593260018131247E-2</v>
-      </c>
-      <c r="D18" s="6">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7.9845311199954735E-2</v>
+      </c>
+      <c r="D18" s="5">
         <f>C18*$J$2</f>
-        <v>1.1433243799195603E-4</v>
+        <v>9.5808316286345426E-4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -7134,14 +7226,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="6">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.4877299130129129E-2</v>
+      </c>
+      <c r="D19" s="5">
         <f>C19*$K$2</f>
-        <v>1.3564086649615727E-3</v>
+        <v>5.2245942997766975E-4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -7149,14 +7241,14 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.7304350417066061E-2</v>
+      </c>
+      <c r="D20" s="5">
         <f>C20*$L$2</f>
-        <v>0</v>
+        <v>9.9902296226061821E-4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -7164,14 +7256,14 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.0090655528346408E-2</v>
+      </c>
+      <c r="D21" s="5">
         <f>C21*$M$2</f>
-        <v>0</v>
+        <v>-1.9325941865054315E-5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -7179,14 +7271,14 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5.4305176594725925E-2</v>
-      </c>
-      <c r="D22" s="6">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6.0463644166376299E-2</v>
+      </c>
+      <c r="D22" s="5">
         <f>C22*$N$2</f>
-        <v>1.5878927271718968E-4</v>
+        <v>-9.5207960404705171E-5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -7194,14 +7286,14 @@
         <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.8742649982586621E-2</v>
+      </c>
+      <c r="D23" s="5">
         <f>C23*$O$2</f>
-        <v>0</v>
+        <v>1.7375977703001127E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -7209,152 +7301,182 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="6">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="D24" s="5">
         <f>C24*$P$2</f>
-        <v>7.0817790097741143E-4</v>
+        <v>1.6754652262799662E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.9233997663409277E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f>C25*$Q$2</f>
+        <v>3.3633598657554343E-4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7.8771383928344083E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <f>C26*$R$2</f>
+        <v>7.3169760752868785E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2">
         <f>0.0551/91</f>
         <v>6.0549450549450556E-4</v>
       </c>
-      <c r="C26" s="2">
-        <f>SUM(C10:C24)</f>
-        <v>0.99999999999997746</v>
-      </c>
-      <c r="D26" s="6">
-        <f>SUM(D10:D24)</f>
-        <v>6.2366113688484244E-3</v>
+      <c r="C29" s="4">
+        <f>SUM(C10:C26)</f>
+        <v>1.0000009999655015</v>
+      </c>
+      <c r="D29" s="5">
+        <f>SUM(D10:D26)</f>
+        <v>5.8736528467661061E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7370,732 +7492,732 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
         <f>AVERAGE(Ret!A2:A252)</f>
-        <v>3.8959902210919937E-4</v>
-      </c>
-      <c r="C2" s="5">
+        <v>-1.7946971401286316E-2</v>
+      </c>
+      <c r="C2" s="4">
         <f>AVERAGE(Ret!B2:B252)</f>
-        <v>4.1570610048389913E-3</v>
-      </c>
-      <c r="D2" s="5">
+        <v>1.0703207154144634E-3</v>
+      </c>
+      <c r="D2" s="4">
         <f>AVERAGE(Ret!C2:C252)</f>
-        <v>1.9736082707500378E-3</v>
-      </c>
-      <c r="E2" s="5">
+        <v>1.3108351420124398E-2</v>
+      </c>
+      <c r="E2" s="4">
         <f>AVERAGE(Ret!D2:D252)</f>
-        <v>1.9516168920192811E-3</v>
-      </c>
-      <c r="F2" s="5">
+        <v>7.013670630458213E-3</v>
+      </c>
+      <c r="F2" s="4">
         <f>AVERAGE(Ret!E2:E252)</f>
-        <v>2.7054371091867592E-3</v>
-      </c>
-      <c r="G2" s="5">
+        <v>1.3807166499682944E-2</v>
+      </c>
+      <c r="G2" s="4">
         <f>AVERAGE(Ret!F2:F252)</f>
-        <v>-2.1016431887257215E-3</v>
-      </c>
-      <c r="H2" s="5">
+        <v>4.9522827680757997E-3</v>
+      </c>
+      <c r="H2" s="4">
         <f>AVERAGE(Ret!G2:G252)</f>
-        <v>5.6740977121815025E-3</v>
-      </c>
-      <c r="I2" s="5">
+        <v>5.7684389651391221E-4</v>
+      </c>
+      <c r="I2" s="4">
         <f>AVERAGE(Ret!H2:H252)</f>
-        <v>2.2299671299149559E-2</v>
-      </c>
-      <c r="J2" s="5">
+        <v>-6.1883399095637448E-3</v>
+      </c>
+      <c r="J2" s="4">
         <f>AVERAGE(Ret!I2:I252)</f>
-        <v>2.3054027492880325E-3</v>
-      </c>
-      <c r="K2" s="5">
+        <v>1.1999241388942039E-2</v>
+      </c>
+      <c r="K2" s="4">
         <f>AVERAGE(Ret!J2:J252)</f>
-        <v>1.3564086649615725E-2</v>
-      </c>
-      <c r="L2" s="5">
+        <v>8.0530391521036471E-3</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(Ret!K2:K252)</f>
-        <v>5.3115681724447139E-4</v>
-      </c>
-      <c r="M2" s="5">
+        <v>1.4843363854935898E-2</v>
+      </c>
+      <c r="M2" s="4">
         <f>AVERAGE(Ret!L2:L252)</f>
-        <v>2.6586583953514208E-3</v>
-      </c>
-      <c r="N2" s="5">
+        <v>-3.2161309766270962E-4</v>
+      </c>
+      <c r="N2" s="4">
         <f>AVERAGE(Ret!M2:M252)</f>
-        <v>2.9240172424485067E-3</v>
-      </c>
-      <c r="O2" s="5">
+        <v>-1.5746315280422696E-3</v>
+      </c>
+      <c r="O2" s="4">
         <f>AVERAGE(Ret!N2:N252)</f>
-        <v>-1.5035399132207684E-2</v>
-      </c>
-      <c r="P2" s="5">
+        <v>2.2066793163353915E-3</v>
+      </c>
+      <c r="P2" s="4">
         <f>AVERAGE(Ret!O2:O252)</f>
-        <v>7.0817790097741137E-3</v>
+        <v>2.0943315328499579E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
         <f>B2*252</f>
-        <v>9.8178953571518235E-2</v>
-      </c>
-      <c r="C3" s="6">
+        <v>-4.5226367931241516</v>
+      </c>
+      <c r="C3" s="5">
         <f t="shared" ref="C3:P3" si="0">C2*252</f>
-        <v>1.0475793732194258</v>
-      </c>
-      <c r="D3" s="6">
+        <v>0.26972082028444477</v>
+      </c>
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49734928422900954</v>
-      </c>
-      <c r="E3" s="6">
+        <v>3.303304557871348</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49180745678885884</v>
-      </c>
-      <c r="F3" s="6">
+        <v>1.7674449988754697</v>
+      </c>
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>0.68177015151506337</v>
-      </c>
-      <c r="G3" s="6">
+        <v>3.4794059579201018</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>-0.52961408355888184</v>
-      </c>
-      <c r="H3" s="6">
+        <v>1.2479752575551015</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>1.4298726234697385</v>
-      </c>
-      <c r="I3" s="6">
+        <v>0.14536466192150588</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>5.6195171673856894</v>
-      </c>
-      <c r="J3" s="6">
+        <v>-1.5594616572100637</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>0.58096149282058418</v>
-      </c>
-      <c r="K3" s="6">
+        <v>3.0238088300133938</v>
+      </c>
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>3.4181498357031628</v>
-      </c>
-      <c r="L3" s="6">
+        <v>2.0293658663301191</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>0.13385151794560679</v>
-      </c>
-      <c r="M3" s="6">
+        <v>3.7405276914438463</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>0.66998191562855802</v>
-      </c>
-      <c r="N3" s="6">
+        <v>-8.1046500611002825E-2</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>0.73685234509702369</v>
-      </c>
-      <c r="O3" s="6">
+        <v>-0.39680714506665193</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>-3.7889205813163365</v>
-      </c>
-      <c r="P3" s="6">
+        <v>0.55608318771651866</v>
+      </c>
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>1.7846083104630766</v>
+        <v>5.2777154627818934</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
         <f>_xlfn.VAR.S(Ret!A2:A252)</f>
-        <v>1.0623035102052966E-4</v>
-      </c>
-      <c r="C4" s="6">
+        <v>1.3600627625916859E-5</v>
+      </c>
+      <c r="C4" s="5">
         <f>_xlfn.VAR.S(Ret!B2:B252)</f>
-        <v>2.6039348251525235E-4</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1.0732642540148087E-5</v>
+      </c>
+      <c r="D4" s="5">
         <f>_xlfn.VAR.S(Ret!C2:C252)</f>
-        <v>2.5284510420784988E-5</v>
-      </c>
-      <c r="E4" s="6">
+        <v>8.7446443963699948E-4</v>
+      </c>
+      <c r="E4" s="5">
         <f>_xlfn.VAR.S(Ret!D2:D252)</f>
-        <v>4.2081577379285908E-5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>3.8756832431443688E-5</v>
+      </c>
+      <c r="F4" s="5">
         <f>_xlfn.VAR.S(Ret!E2:E252)</f>
-        <v>2.6487233376387482E-5</v>
-      </c>
-      <c r="G4" s="6">
+        <v>1.5311001853874019E-3</v>
+      </c>
+      <c r="G4" s="5">
         <f>_xlfn.VAR.S(Ret!F2:F252)</f>
-        <v>9.5943928737772139E-5</v>
-      </c>
-      <c r="H4" s="6">
+        <v>2.3139929262630221E-6</v>
+      </c>
+      <c r="H4" s="5">
         <f>_xlfn.VAR.S(Ret!G2:G252)</f>
-        <v>3.0131590862731751E-4</v>
-      </c>
-      <c r="I4" s="6">
+        <v>2.9595724032790996E-7</v>
+      </c>
+      <c r="I4" s="5">
         <f>_xlfn.VAR.S(Ret!H2:H252)</f>
-        <v>8.1173534306273887E-4</v>
-      </c>
-      <c r="J4" s="6">
+        <v>2.9263862008008516E-4</v>
+      </c>
+      <c r="J4" s="5">
         <f>_xlfn.VAR.S(Ret!I2:I252)</f>
-        <v>1.1111724364521666E-4</v>
-      </c>
-      <c r="K4" s="6">
+        <v>1.0251599462041767E-4</v>
+      </c>
+      <c r="K4" s="5">
         <f>_xlfn.VAR.S(Ret!J2:J252)</f>
-        <v>3.6418198015211793E-4</v>
-      </c>
-      <c r="L4" s="6">
+        <v>2.0613407943150479E-5</v>
+      </c>
+      <c r="L4" s="5">
         <f>_xlfn.VAR.S(Ret!K2:K252)</f>
-        <v>2.5376927209468851E-4</v>
-      </c>
-      <c r="M4" s="6">
+        <v>1.0897370279083849E-4</v>
+      </c>
+      <c r="M4" s="5">
         <f>_xlfn.VAR.S(Ret!L2:L252)</f>
-        <v>6.3127037446842216E-4</v>
-      </c>
-      <c r="N4" s="6">
+        <v>6.4345283694519995E-6</v>
+      </c>
+      <c r="N4" s="5">
         <f>_xlfn.VAR.S(Ret!M2:M252)</f>
-        <v>2.7209500850950601E-4</v>
-      </c>
-      <c r="O4" s="6">
+        <v>1.7803864649509596E-5</v>
+      </c>
+      <c r="O4" s="5">
         <f>_xlfn.VAR.S(Ret!N2:N252)</f>
-        <v>6.8985580087295851E-4</v>
-      </c>
-      <c r="P4" s="6">
+        <v>1.6715550034290981E-4</v>
+      </c>
+      <c r="P4" s="5">
         <f>_xlfn.VAR.S(Ret!O2:O252)</f>
-        <v>6.8850897122569151E-5</v>
+        <v>6.3270329658475223E-6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
         <f>B4*252</f>
-        <v>2.6770048457173474E-2</v>
-      </c>
-      <c r="C5" s="6">
+        <v>3.4273581617310484E-3</v>
+      </c>
+      <c r="C5" s="5">
         <f t="shared" ref="C5:P5" si="1">C4*252</f>
-        <v>6.5619157593843597E-2</v>
-      </c>
-      <c r="D5" s="6">
+        <v>2.7046259201173178E-3</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3716966260378167E-3</v>
-      </c>
-      <c r="E5" s="6">
+        <v>0.22036503878852387</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1.0604557499580048E-2</v>
-      </c>
-      <c r="F5" s="6">
+        <v>9.7667217727238093E-3</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>6.6747828108496459E-3</v>
-      </c>
-      <c r="G5" s="6">
+        <v>0.38583724671762526</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>2.417787004191858E-2</v>
-      </c>
-      <c r="H5" s="6">
+        <v>5.8312621741828162E-4</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>7.5931608974084006E-2</v>
-      </c>
-      <c r="I5" s="6">
+        <v>7.458122456263331E-5</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>0.20455730645181019</v>
-      </c>
-      <c r="J5" s="6">
+        <v>7.3744932260181459E-2</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>2.8001545398594598E-2</v>
-      </c>
-      <c r="K5" s="6">
+        <v>2.5834030644345255E-2</v>
+      </c>
+      <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>9.1773858998333721E-2</v>
-      </c>
-      <c r="L5" s="6">
+        <v>5.1945788016739209E-3</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3949856567861507E-2</v>
-      </c>
-      <c r="M5" s="6">
+        <v>2.74613731032913E-2</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>0.15908013436604238</v>
-      </c>
-      <c r="N5" s="6">
+        <v>1.6215011491019038E-3</v>
+      </c>
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>6.8567942144395516E-2</v>
-      </c>
-      <c r="O5" s="6">
+        <v>4.4865738916764182E-3</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>0.17384366181998553</v>
-      </c>
-      <c r="P5" s="6">
+        <v>4.2123186086413272E-2</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
-        <v>1.7350426074887425E-2</v>
+        <v>1.5944123073935756E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
         <f>_xlfn.STDEV.S(Ret!A2:A252)</f>
-        <v>1.0306810904471357E-2</v>
-      </c>
-      <c r="C6" s="6">
+        <v>3.687902876421349E-3</v>
+      </c>
+      <c r="C6" s="5">
         <f>_xlfn.STDEV.S(Ret!B2:B252)</f>
-        <v>1.6136712258550449E-2</v>
-      </c>
-      <c r="D6" s="6">
+        <v>3.2760712049874751E-3</v>
+      </c>
+      <c r="D6" s="5">
         <f>_xlfn.STDEV.S(Ret!C2:C252)</f>
-        <v>5.0283705532493317E-3</v>
-      </c>
-      <c r="E6" s="6">
+        <v>2.9571344907477568E-2</v>
+      </c>
+      <c r="E6" s="5">
         <f>_xlfn.STDEV.S(Ret!D2:D252)</f>
-        <v>6.4870314766683462E-3</v>
-      </c>
-      <c r="F6" s="6">
+        <v>6.2254985689054404E-3</v>
+      </c>
+      <c r="F6" s="5">
         <f>_xlfn.STDEV.S(Ret!E2:E252)</f>
-        <v>5.146574917009125E-3</v>
-      </c>
-      <c r="G6" s="6">
+        <v>3.9129275298520443E-2</v>
+      </c>
+      <c r="G6" s="5">
         <f>_xlfn.STDEV.S(Ret!F2:F252)</f>
-        <v>9.7950971785772563E-3</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1.521181424506302E-3</v>
+      </c>
+      <c r="H6" s="5">
         <f>_xlfn.STDEV.S(Ret!G2:G252)</f>
-        <v>1.7358453520614027E-2</v>
-      </c>
-      <c r="I6" s="6">
+        <v>5.4401952200992744E-4</v>
+      </c>
+      <c r="I6" s="5">
         <f>_xlfn.STDEV.S(Ret!H2:H252)</f>
-        <v>2.8490969500224783E-2</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1.7106683491550465E-2</v>
+      </c>
+      <c r="J6" s="5">
         <f>_xlfn.STDEV.S(Ret!I2:I252)</f>
-        <v>1.0541216421514959E-2</v>
-      </c>
-      <c r="K6" s="6">
+        <v>1.012501825284368E-2</v>
+      </c>
+      <c r="K6" s="5">
         <f>_xlfn.STDEV.S(Ret!J2:J252)</f>
-        <v>1.9083552608257143E-2</v>
-      </c>
-      <c r="L6" s="6">
+        <v>4.5401991083156784E-3</v>
+      </c>
+      <c r="L6" s="5">
         <f>_xlfn.STDEV.S(Ret!K2:K252)</f>
-        <v>1.5930137227741902E-2</v>
-      </c>
-      <c r="M6" s="6">
+        <v>1.0439047025032433E-2</v>
+      </c>
+      <c r="M6" s="5">
         <f>_xlfn.STDEV.S(Ret!L2:L252)</f>
-        <v>2.5125094516606741E-2</v>
-      </c>
-      <c r="N6" s="6">
+        <v>2.5366372167600158E-3</v>
+      </c>
+      <c r="N6" s="5">
         <f>_xlfn.STDEV.S(Ret!M2:M252)</f>
-        <v>1.6495302619518867E-2</v>
-      </c>
-      <c r="O6" s="6">
+        <v>4.2194626019802089E-3</v>
+      </c>
+      <c r="O6" s="5">
         <f>_xlfn.STDEV.S(Ret!N2:N252)</f>
-        <v>2.6265106146234372E-2</v>
-      </c>
-      <c r="P6" s="6">
+        <v>1.2928863072324256E-2</v>
+      </c>
+      <c r="P6" s="5">
         <f>_xlfn.STDEV.S(Ret!O2:O252)</f>
-        <v>8.2976440706124012E-3</v>
+        <v>2.5153594108690554E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
         <f>B6*SQRT(252)</f>
-        <v>0.16361555078039947</v>
-      </c>
-      <c r="C7" s="6">
+        <v>5.8543643222223954E-2</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" ref="C7:P7" si="2">C6*SQRT(252)</f>
-        <v>0.25616236568599143</v>
-      </c>
-      <c r="D7" s="6">
+        <v>5.2006018114419392E-2</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>7.9822907902668008E-2</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0.46943054735341189</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>0.10297843220587527</v>
-      </c>
-      <c r="F7" s="6">
+        <v>9.8826726004273807E-2</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>8.1699344005014177E-2</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.62115798853240656</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>0.15549234721335509</v>
-      </c>
-      <c r="H7" s="6">
+        <v>2.41480064895279E-2</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.27555690696130991</v>
-      </c>
-      <c r="I7" s="6">
+        <v>8.6360421816149852E-3</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45228011945232593</v>
-      </c>
-      <c r="J7" s="6">
+        <v>0.27156018165441981</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0.16733662300463278</v>
-      </c>
-      <c r="K7" s="6">
+        <v>0.16072968190208445</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>0.30294200599839854</v>
-      </c>
-      <c r="L7" s="6">
+        <v>7.2073426459922957E-2</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>0.25288308873442189</v>
-      </c>
-      <c r="M7" s="6">
+        <v>0.16571473411646684</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.39884851054760428</v>
-      </c>
-      <c r="N7" s="6">
+        <v>4.0267867451628275E-2</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>0.26185481119199533</v>
-      </c>
-      <c r="O7" s="6">
+        <v>6.6981892267062887E-2</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>0.41694563412990138</v>
-      </c>
-      <c r="P7" s="6">
+        <v>0.20523933854505885</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
-        <v>0.13172101607142053</v>
+        <v>3.9930092754632759E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C10*$B$3</f>
         <v>0</v>
       </c>
-      <c r="F10" s="10" t="e" cm="1">
+      <c r="F10" s="8" t="e" cm="1">
         <f t="array" ref="F10">MMULT(TRANSPOSE(C10:C24),MMULT(#REF!,'2'!C10:C24))</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="6" t="e">
+      <c r="G10" s="5" t="e">
         <f>F10*252</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="6" t="e">
+      <c r="H10" s="5" t="e">
         <f>SQRT(G10)</f>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="9" t="e">
+      <c r="I10" s="7" t="e">
         <f>(D26-B26)/H10</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>C11*$C$3</f>
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>C12*$D$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>C13*$E$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>C14*$F$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.1865650695344114</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>C15*$G$3</f>
-        <v>-9.8807488325566364E-2</v>
+        <v>0.2328285907029925</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>C16*$H$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.81343493046558835</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>C17*$I$3</f>
-        <v>4.5711115563025579</v>
+        <v>-1.2685205846964194</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>C18*$J$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>C19*$K$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>C20*$L$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>C21*$M$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>C22*$N$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>C23*$O$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>C24*$P$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
         <v>0.05</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <f>SUM(C10:C24)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>SUM(D10:D24)</f>
-        <v>4.4723040679769914</v>
+        <v>-1.0356919939934268</v>
       </c>
     </row>
   </sheetData>
@@ -8111,732 +8233,732 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="14" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
         <f>AVERAGE(Ret!A2:A252)</f>
-        <v>3.8959902210919937E-4</v>
-      </c>
-      <c r="C2" s="5">
+        <v>-1.7946971401286316E-2</v>
+      </c>
+      <c r="C2" s="4">
         <f>AVERAGE(Ret!B2:B252)</f>
-        <v>4.1570610048389913E-3</v>
-      </c>
-      <c r="D2" s="5">
+        <v>1.0703207154144634E-3</v>
+      </c>
+      <c r="D2" s="4">
         <f>AVERAGE(Ret!C2:C252)</f>
-        <v>1.9736082707500378E-3</v>
-      </c>
-      <c r="E2" s="5">
+        <v>1.3108351420124398E-2</v>
+      </c>
+      <c r="E2" s="4">
         <f>AVERAGE(Ret!D2:D252)</f>
-        <v>1.9516168920192811E-3</v>
-      </c>
-      <c r="F2" s="5">
+        <v>7.013670630458213E-3</v>
+      </c>
+      <c r="F2" s="4">
         <f>AVERAGE(Ret!E2:E252)</f>
-        <v>2.7054371091867592E-3</v>
-      </c>
-      <c r="G2" s="5">
+        <v>1.3807166499682944E-2</v>
+      </c>
+      <c r="G2" s="4">
         <f>AVERAGE(Ret!F2:F252)</f>
-        <v>-2.1016431887257215E-3</v>
-      </c>
-      <c r="H2" s="5">
+        <v>4.9522827680757997E-3</v>
+      </c>
+      <c r="H2" s="4">
         <f>AVERAGE(Ret!G2:G252)</f>
-        <v>5.6740977121815025E-3</v>
-      </c>
-      <c r="I2" s="5">
+        <v>5.7684389651391221E-4</v>
+      </c>
+      <c r="I2" s="4">
         <f>AVERAGE(Ret!H2:H252)</f>
-        <v>2.2299671299149559E-2</v>
-      </c>
-      <c r="J2" s="5">
+        <v>-6.1883399095637448E-3</v>
+      </c>
+      <c r="J2" s="4">
         <f>AVERAGE(Ret!I2:I252)</f>
-        <v>2.3054027492880325E-3</v>
-      </c>
-      <c r="K2" s="5">
+        <v>1.1999241388942039E-2</v>
+      </c>
+      <c r="K2" s="4">
         <f>AVERAGE(Ret!J2:J252)</f>
-        <v>1.3564086649615725E-2</v>
-      </c>
-      <c r="L2" s="5">
+        <v>8.0530391521036471E-3</v>
+      </c>
+      <c r="L2" s="4">
         <f>AVERAGE(Ret!K2:K252)</f>
-        <v>5.3115681724447139E-4</v>
-      </c>
-      <c r="M2" s="5">
+        <v>1.4843363854935898E-2</v>
+      </c>
+      <c r="M2" s="4">
         <f>AVERAGE(Ret!L2:L252)</f>
-        <v>2.6586583953514208E-3</v>
-      </c>
-      <c r="N2" s="5">
+        <v>-3.2161309766270962E-4</v>
+      </c>
+      <c r="N2" s="4">
         <f>AVERAGE(Ret!M2:M252)</f>
-        <v>2.9240172424485067E-3</v>
-      </c>
-      <c r="O2" s="5">
+        <v>-1.5746315280422696E-3</v>
+      </c>
+      <c r="O2" s="4">
         <f>AVERAGE(Ret!N2:N252)</f>
-        <v>-1.5035399132207684E-2</v>
-      </c>
-      <c r="P2" s="5">
+        <v>2.2066793163353915E-3</v>
+      </c>
+      <c r="P2" s="4">
         <f>AVERAGE(Ret!O2:O252)</f>
-        <v>7.0817790097741137E-3</v>
+        <v>2.0943315328499579E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
         <f>B2*252</f>
-        <v>9.8178953571518235E-2</v>
-      </c>
-      <c r="C3" s="6">
+        <v>-4.5226367931241516</v>
+      </c>
+      <c r="C3" s="5">
         <f t="shared" ref="C3:P3" si="0">C2*252</f>
-        <v>1.0475793732194258</v>
-      </c>
-      <c r="D3" s="6">
+        <v>0.26972082028444477</v>
+      </c>
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49734928422900954</v>
-      </c>
-      <c r="E3" s="6">
+        <v>3.303304557871348</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>0.49180745678885884</v>
-      </c>
-      <c r="F3" s="6">
+        <v>1.7674449988754697</v>
+      </c>
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>0.68177015151506337</v>
-      </c>
-      <c r="G3" s="6">
+        <v>3.4794059579201018</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>-0.52961408355888184</v>
-      </c>
-      <c r="H3" s="6">
+        <v>1.2479752575551015</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>1.4298726234697385</v>
-      </c>
-      <c r="I3" s="6">
+        <v>0.14536466192150588</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>5.6195171673856894</v>
-      </c>
-      <c r="J3" s="6">
+        <v>-1.5594616572100637</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>0.58096149282058418</v>
-      </c>
-      <c r="K3" s="6">
+        <v>3.0238088300133938</v>
+      </c>
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>3.4181498357031628</v>
-      </c>
-      <c r="L3" s="6">
+        <v>2.0293658663301191</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>0.13385151794560679</v>
-      </c>
-      <c r="M3" s="6">
+        <v>3.7405276914438463</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>0.66998191562855802</v>
-      </c>
-      <c r="N3" s="6">
+        <v>-8.1046500611002825E-2</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>0.73685234509702369</v>
-      </c>
-      <c r="O3" s="6">
+        <v>-0.39680714506665193</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>-3.7889205813163365</v>
-      </c>
-      <c r="P3" s="6">
+        <v>0.55608318771651866</v>
+      </c>
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>1.7846083104630766</v>
+        <v>5.2777154627818934</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
         <f>_xlfn.VAR.S(Ret!A2:A252)</f>
-        <v>1.0623035102052966E-4</v>
-      </c>
-      <c r="C4" s="6">
+        <v>1.3600627625916859E-5</v>
+      </c>
+      <c r="C4" s="5">
         <f>_xlfn.VAR.S(Ret!B2:B252)</f>
-        <v>2.6039348251525235E-4</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1.0732642540148087E-5</v>
+      </c>
+      <c r="D4" s="5">
         <f>_xlfn.VAR.S(Ret!C2:C252)</f>
-        <v>2.5284510420784988E-5</v>
-      </c>
-      <c r="E4" s="6">
+        <v>8.7446443963699948E-4</v>
+      </c>
+      <c r="E4" s="5">
         <f>_xlfn.VAR.S(Ret!D2:D252)</f>
-        <v>4.2081577379285908E-5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>3.8756832431443688E-5</v>
+      </c>
+      <c r="F4" s="5">
         <f>_xlfn.VAR.S(Ret!E2:E252)</f>
-        <v>2.6487233376387482E-5</v>
-      </c>
-      <c r="G4" s="6">
+        <v>1.5311001853874019E-3</v>
+      </c>
+      <c r="G4" s="5">
         <f>_xlfn.VAR.S(Ret!F2:F252)</f>
-        <v>9.5943928737772139E-5</v>
-      </c>
-      <c r="H4" s="6">
+        <v>2.3139929262630221E-6</v>
+      </c>
+      <c r="H4" s="5">
         <f>_xlfn.VAR.S(Ret!G2:G252)</f>
-        <v>3.0131590862731751E-4</v>
-      </c>
-      <c r="I4" s="6">
+        <v>2.9595724032790996E-7</v>
+      </c>
+      <c r="I4" s="5">
         <f>_xlfn.VAR.S(Ret!H2:H252)</f>
-        <v>8.1173534306273887E-4</v>
-      </c>
-      <c r="J4" s="6">
+        <v>2.9263862008008516E-4</v>
+      </c>
+      <c r="J4" s="5">
         <f>_xlfn.VAR.S(Ret!I2:I252)</f>
-        <v>1.1111724364521666E-4</v>
-      </c>
-      <c r="K4" s="6">
+        <v>1.0251599462041767E-4</v>
+      </c>
+      <c r="K4" s="5">
         <f>_xlfn.VAR.S(Ret!J2:J252)</f>
-        <v>3.6418198015211793E-4</v>
-      </c>
-      <c r="L4" s="6">
+        <v>2.0613407943150479E-5</v>
+      </c>
+      <c r="L4" s="5">
         <f>_xlfn.VAR.S(Ret!K2:K252)</f>
-        <v>2.5376927209468851E-4</v>
-      </c>
-      <c r="M4" s="6">
+        <v>1.0897370279083849E-4</v>
+      </c>
+      <c r="M4" s="5">
         <f>_xlfn.VAR.S(Ret!L2:L252)</f>
-        <v>6.3127037446842216E-4</v>
-      </c>
-      <c r="N4" s="6">
+        <v>6.4345283694519995E-6</v>
+      </c>
+      <c r="N4" s="5">
         <f>_xlfn.VAR.S(Ret!M2:M252)</f>
-        <v>2.7209500850950601E-4</v>
-      </c>
-      <c r="O4" s="6">
+        <v>1.7803864649509596E-5</v>
+      </c>
+      <c r="O4" s="5">
         <f>_xlfn.VAR.S(Ret!N2:N252)</f>
-        <v>6.8985580087295851E-4</v>
-      </c>
-      <c r="P4" s="6">
+        <v>1.6715550034290981E-4</v>
+      </c>
+      <c r="P4" s="5">
         <f>_xlfn.VAR.S(Ret!O2:O252)</f>
-        <v>6.8850897122569151E-5</v>
+        <v>6.3270329658475223E-6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
         <f>B4*252</f>
-        <v>2.6770048457173474E-2</v>
-      </c>
-      <c r="C5" s="6">
+        <v>3.4273581617310484E-3</v>
+      </c>
+      <c r="C5" s="5">
         <f t="shared" ref="C5:P5" si="1">C4*252</f>
-        <v>6.5619157593843597E-2</v>
-      </c>
-      <c r="D5" s="6">
+        <v>2.7046259201173178E-3</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3716966260378167E-3</v>
-      </c>
-      <c r="E5" s="6">
+        <v>0.22036503878852387</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1.0604557499580048E-2</v>
-      </c>
-      <c r="F5" s="6">
+        <v>9.7667217727238093E-3</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>6.6747828108496459E-3</v>
-      </c>
-      <c r="G5" s="6">
+        <v>0.38583724671762526</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>2.417787004191858E-2</v>
-      </c>
-      <c r="H5" s="6">
+        <v>5.8312621741828162E-4</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>7.5931608974084006E-2</v>
-      </c>
-      <c r="I5" s="6">
+        <v>7.458122456263331E-5</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>0.20455730645181019</v>
-      </c>
-      <c r="J5" s="6">
+        <v>7.3744932260181459E-2</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>2.8001545398594598E-2</v>
-      </c>
-      <c r="K5" s="6">
+        <v>2.5834030644345255E-2</v>
+      </c>
+      <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>9.1773858998333721E-2</v>
-      </c>
-      <c r="L5" s="6">
+        <v>5.1945788016739209E-3</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>6.3949856567861507E-2</v>
-      </c>
-      <c r="M5" s="6">
+        <v>2.74613731032913E-2</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>0.15908013436604238</v>
-      </c>
-      <c r="N5" s="6">
+        <v>1.6215011491019038E-3</v>
+      </c>
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>6.8567942144395516E-2</v>
-      </c>
-      <c r="O5" s="6">
+        <v>4.4865738916764182E-3</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>0.17384366181998553</v>
-      </c>
-      <c r="P5" s="6">
+        <v>4.2123186086413272E-2</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
-        <v>1.7350426074887425E-2</v>
+        <v>1.5944123073935756E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
         <f>_xlfn.STDEV.S(Ret!A2:A252)</f>
-        <v>1.0306810904471357E-2</v>
-      </c>
-      <c r="C6" s="6">
+        <v>3.687902876421349E-3</v>
+      </c>
+      <c r="C6" s="5">
         <f>_xlfn.STDEV.S(Ret!B2:B252)</f>
-        <v>1.6136712258550449E-2</v>
-      </c>
-      <c r="D6" s="6">
+        <v>3.2760712049874751E-3</v>
+      </c>
+      <c r="D6" s="5">
         <f>_xlfn.STDEV.S(Ret!C2:C252)</f>
-        <v>5.0283705532493317E-3</v>
-      </c>
-      <c r="E6" s="6">
+        <v>2.9571344907477568E-2</v>
+      </c>
+      <c r="E6" s="5">
         <f>_xlfn.STDEV.S(Ret!D2:D252)</f>
-        <v>6.4870314766683462E-3</v>
-      </c>
-      <c r="F6" s="6">
+        <v>6.2254985689054404E-3</v>
+      </c>
+      <c r="F6" s="5">
         <f>_xlfn.STDEV.S(Ret!E2:E252)</f>
-        <v>5.146574917009125E-3</v>
-      </c>
-      <c r="G6" s="6">
+        <v>3.9129275298520443E-2</v>
+      </c>
+      <c r="G6" s="5">
         <f>_xlfn.STDEV.S(Ret!F2:F252)</f>
-        <v>9.7950971785772563E-3</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1.521181424506302E-3</v>
+      </c>
+      <c r="H6" s="5">
         <f>_xlfn.STDEV.S(Ret!G2:G252)</f>
-        <v>1.7358453520614027E-2</v>
-      </c>
-      <c r="I6" s="6">
+        <v>5.4401952200992744E-4</v>
+      </c>
+      <c r="I6" s="5">
         <f>_xlfn.STDEV.S(Ret!H2:H252)</f>
-        <v>2.8490969500224783E-2</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1.7106683491550465E-2</v>
+      </c>
+      <c r="J6" s="5">
         <f>_xlfn.STDEV.S(Ret!I2:I252)</f>
-        <v>1.0541216421514959E-2</v>
-      </c>
-      <c r="K6" s="6">
+        <v>1.012501825284368E-2</v>
+      </c>
+      <c r="K6" s="5">
         <f>_xlfn.STDEV.S(Ret!J2:J252)</f>
-        <v>1.9083552608257143E-2</v>
-      </c>
-      <c r="L6" s="6">
+        <v>4.5401991083156784E-3</v>
+      </c>
+      <c r="L6" s="5">
         <f>_xlfn.STDEV.S(Ret!K2:K252)</f>
-        <v>1.5930137227741902E-2</v>
-      </c>
-      <c r="M6" s="6">
+        <v>1.0439047025032433E-2</v>
+      </c>
+      <c r="M6" s="5">
         <f>_xlfn.STDEV.S(Ret!L2:L252)</f>
-        <v>2.5125094516606741E-2</v>
-      </c>
-      <c r="N6" s="6">
+        <v>2.5366372167600158E-3</v>
+      </c>
+      <c r="N6" s="5">
         <f>_xlfn.STDEV.S(Ret!M2:M252)</f>
-        <v>1.6495302619518867E-2</v>
-      </c>
-      <c r="O6" s="6">
+        <v>4.2194626019802089E-3</v>
+      </c>
+      <c r="O6" s="5">
         <f>_xlfn.STDEV.S(Ret!N2:N252)</f>
-        <v>2.6265106146234372E-2</v>
-      </c>
-      <c r="P6" s="6">
+        <v>1.2928863072324256E-2</v>
+      </c>
+      <c r="P6" s="5">
         <f>_xlfn.STDEV.S(Ret!O2:O252)</f>
-        <v>8.2976440706124012E-3</v>
+        <v>2.5153594108690554E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
         <f>B6*SQRT(252)</f>
-        <v>0.16361555078039947</v>
-      </c>
-      <c r="C7" s="6">
+        <v>5.8543643222223954E-2</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" ref="C7:P7" si="2">C6*SQRT(252)</f>
-        <v>0.25616236568599143</v>
-      </c>
-      <c r="D7" s="6">
+        <v>5.2006018114419392E-2</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>7.9822907902668008E-2</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0.46943054735341189</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>0.10297843220587527</v>
-      </c>
-      <c r="F7" s="6">
+        <v>9.8826726004273807E-2</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>8.1699344005014177E-2</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.62115798853240656</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>0.15549234721335509</v>
-      </c>
-      <c r="H7" s="6">
+        <v>2.41480064895279E-2</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.27555690696130991</v>
-      </c>
-      <c r="I7" s="6">
+        <v>8.6360421816149852E-3</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45228011945232593</v>
-      </c>
-      <c r="J7" s="6">
+        <v>0.27156018165441981</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0.16733662300463278</v>
-      </c>
-      <c r="K7" s="6">
+        <v>0.16072968190208445</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>0.30294200599839854</v>
-      </c>
-      <c r="L7" s="6">
+        <v>7.2073426459922957E-2</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>0.25288308873442189</v>
-      </c>
-      <c r="M7" s="6">
+        <v>0.16571473411646684</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.39884851054760428</v>
-      </c>
-      <c r="N7" s="6">
+        <v>4.0267867451628275E-2</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>0.26185481119199533</v>
-      </c>
-      <c r="O7" s="6">
+        <v>6.6981892267062887E-2</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>0.41694563412990138</v>
-      </c>
-      <c r="P7" s="6">
+        <v>0.20523933854505885</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
-        <v>0.13172101607142053</v>
+        <v>3.9930092754632759E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>C10*$B$3</f>
-        <v>9.8178953571518238E-3</v>
-      </c>
-      <c r="F10" s="10" t="e" cm="1">
+        <v>-0.45226367931241518</v>
+      </c>
+      <c r="F10" s="8" t="e" cm="1">
         <f t="array" ref="F10">MMULT(TRANSPOSE(C10:C24),MMULT(#REF!,'3'!C10:C24))</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="6" t="e">
+      <c r="G10" s="5" t="e">
         <f>F10*252</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="6" t="e">
+      <c r="H10" s="5" t="e">
         <f>SQRT(G10)</f>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="9" t="e">
+      <c r="I10" s="7" t="e">
         <f>(D26-B26)/H10</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6">
         <v>4.9737052152526058E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>C11*$C$3</f>
-        <v>5.2103509919725143E-2</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>1.3415118505109538E-2</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6">
         <v>0.1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>C12*$D$3</f>
-        <v>4.9734928422900955E-2</v>
+        <v>0.33033045578713482</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="8">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>C13*$E$3</f>
-        <v>4.918074567888589E-2</v>
+        <v>0.17674449988754698</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6">
         <v>0.1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>C14*$F$3</f>
-        <v>6.8177015151506343E-2</v>
+        <v>0.3479405957920102</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>C15*$G$3</f>
-        <v>-5.2961408355888188E-2</v>
+        <v>0.12479752575551016</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>C16*$H$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>C17*$I$3</f>
-        <v>0.56195171673856892</v>
+        <v>-0.15594616572100639</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6">
         <v>0.1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>C18*$J$3</f>
-        <v>5.8096149282058418E-2</v>
+        <v>0.30238088300133942</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>C19*$K$3</f>
-        <v>0.34181498357031631</v>
+        <v>0.20293658663301192</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6">
         <v>8.706645154941775E-2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>C20*$L$3</f>
-        <v>1.1653976702027195E-2</v>
+        <v>0.32567447301635105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="8">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>C21*$M$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="6">
         <v>3.8610715670923654E-2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>C22*$N$3</f>
-        <v>2.8450396387994497E-2</v>
+        <v>-1.5321007854359454E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>C23*$O$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6">
         <v>2.4586780627132182E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>C24*$P$3</f>
-        <v>4.3877773034712665E-2</v>
+        <v>0.12976203229584182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
         <v>0.05</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <f>SUM(C10:C24)</f>
         <v>1.0000009999999995</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>SUM(D10:D24)</f>
-        <v>1.2218976818899598</v>
+        <v>1.3304513177860748</v>
       </c>
     </row>
   </sheetData>
